--- a/outputs-HGR-r202/test-g__Veillonella_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Veillonella_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Row</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>even_MAG-GUT48943.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT48949.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT48957.fa</t>
@@ -658,7 +661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P185"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -684,49 +687,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
@@ -4384,46 +4387,46 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.06500655720084654</v>
+        <v>2.2688876480073474e-14</v>
       </c>
       <c r="C75">
-        <v>0.049928947769353402</v>
+        <v>0.00068376883970290092</v>
       </c>
       <c r="D75">
-        <v>0.030019540848255009</v>
+        <v>0.36175314992863006</v>
       </c>
       <c r="E75">
-        <v>0.094668551898830139</v>
+        <v>0.06623353448796826</v>
       </c>
       <c r="F75">
-        <v>0.046170770802703272</v>
+        <v>0.028875859847069755</v>
       </c>
       <c r="G75">
-        <v>0.19465633088191697</v>
+        <v>0.14108863840632327</v>
       </c>
       <c r="H75">
-        <v>0.0096093604745364578</v>
+        <v>0.04284825827085844</v>
       </c>
       <c r="I75">
-        <v>0.087084777492469942</v>
+        <v>0.074949857927818206</v>
       </c>
       <c r="J75">
-        <v>0.10112347704051665</v>
+        <v>0.07597926036880108</v>
       </c>
       <c r="K75">
-        <v>0.035702741620470407</v>
+        <v>0.062702383728434563</v>
       </c>
       <c r="L75">
-        <v>0.02791240066949973</v>
+        <v>0.010885118794576258</v>
       </c>
       <c r="M75">
-        <v>0.11374028218896663</v>
+        <v>0.079070326414120304</v>
       </c>
       <c r="N75">
-        <v>0.096607267056922741</v>
+        <v>0.054778625672618</v>
       </c>
       <c r="O75">
-        <v>0.047768994054712029</v>
+        <v>0.00015121731305630035</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -4434,46 +4437,46 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.048731772321855361</v>
+        <v>0.06500655720084654</v>
       </c>
       <c r="C76">
-        <v>0.006968880364126794</v>
+        <v>0.049928947769353402</v>
       </c>
       <c r="D76">
-        <v>0.099548242287680055</v>
+        <v>0.030019540848255009</v>
       </c>
       <c r="E76">
-        <v>0.093043314187676945</v>
+        <v>0.094668551898830139</v>
       </c>
       <c r="F76">
-        <v>0.036752738866379975</v>
+        <v>0.046170770802703272</v>
       </c>
       <c r="G76">
-        <v>0.19233845624766979</v>
+        <v>0.19465633088191697</v>
       </c>
       <c r="H76">
-        <v>0.015076997871356742</v>
+        <v>0.0096093604745364578</v>
       </c>
       <c r="I76">
-        <v>0.1104490645139688</v>
+        <v>0.087084777492469942</v>
       </c>
       <c r="J76">
-        <v>0.099622415883294319</v>
+        <v>0.10112347704051665</v>
       </c>
       <c r="K76">
-        <v>0.03577914528297084</v>
+        <v>0.035702741620470407</v>
       </c>
       <c r="L76">
-        <v>0.031899594083125912</v>
+        <v>0.02791240066949973</v>
       </c>
       <c r="M76">
-        <v>0.11264913059061661</v>
+        <v>0.11374028218896663</v>
       </c>
       <c r="N76">
-        <v>0.10325481171625278</v>
+        <v>0.096607267056922741</v>
       </c>
       <c r="O76">
-        <v>0.013885435783025047</v>
+        <v>0.047768994054712029</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -4484,46 +4487,46 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.090407102775237932</v>
+        <v>0.048731772321855361</v>
       </c>
       <c r="C77">
-        <v>0.015873409565435266</v>
+        <v>0.006968880364126794</v>
       </c>
       <c r="D77">
-        <v>0.016608442681833712</v>
+        <v>0.099548242287680055</v>
       </c>
       <c r="E77">
-        <v>0.09762261771496028</v>
+        <v>0.093043314187676945</v>
       </c>
       <c r="F77">
-        <v>0.042818376551851556</v>
+        <v>0.036752738866379975</v>
       </c>
       <c r="G77">
-        <v>0.19946675321258878</v>
+        <v>0.19233845624766979</v>
       </c>
       <c r="H77">
-        <v>0.015687228447514568</v>
+        <v>0.015076997871356742</v>
       </c>
       <c r="I77">
-        <v>0.094975544870235795</v>
+        <v>0.1104490645139688</v>
       </c>
       <c r="J77">
-        <v>0.098899288003363547</v>
+        <v>0.099622415883294319</v>
       </c>
       <c r="K77">
-        <v>0.056472694222895484</v>
+        <v>0.03577914528297084</v>
       </c>
       <c r="L77">
-        <v>0.057338857438419016</v>
+        <v>0.031899594083125912</v>
       </c>
       <c r="M77">
-        <v>0.11715722109256517</v>
+        <v>0.11264913059061661</v>
       </c>
       <c r="N77">
-        <v>0.083471433944598064</v>
+        <v>0.10325481171625278</v>
       </c>
       <c r="O77">
-        <v>0.013201029478500742</v>
+        <v>0.013885435783025047</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -4534,46 +4537,46 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2.2356901655084309e-14</v>
+        <v>0.090407102775237932</v>
       </c>
       <c r="C78">
-        <v>0.0034456785516956065</v>
+        <v>0.015873409565435266</v>
       </c>
       <c r="D78">
-        <v>0.2275890565335045</v>
+        <v>0.016608442681833712</v>
       </c>
       <c r="E78">
-        <v>0.083559181663157095</v>
+        <v>0.09762261771496028</v>
       </c>
       <c r="F78">
-        <v>0.031616509093847778</v>
+        <v>0.042818376551851556</v>
       </c>
       <c r="G78">
-        <v>0.18128627630934191</v>
+        <v>0.19946675321258878</v>
       </c>
       <c r="H78">
-        <v>0.026232249112474331</v>
+        <v>0.015687228447514568</v>
       </c>
       <c r="I78">
-        <v>0.089624489432288346</v>
+        <v>0.094975544870235795</v>
       </c>
       <c r="J78">
-        <v>0.090414568901455633</v>
+        <v>0.098899288003363547</v>
       </c>
       <c r="K78">
-        <v>0.027407970914579586</v>
+        <v>0.056472694222895484</v>
       </c>
       <c r="L78">
-        <v>0.013360778408198387</v>
+        <v>0.057338857438419016</v>
       </c>
       <c r="M78">
-        <v>0.092427073225025982</v>
+        <v>0.11715722109256517</v>
       </c>
       <c r="N78">
-        <v>0.086509339169329333</v>
+        <v>0.083471433944598064</v>
       </c>
       <c r="O78">
-        <v>0.046526828685079215</v>
+        <v>0.013201029478500742</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -4584,46 +4587,46 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.2392868766767301e-14</v>
+        <v>2.2356901655084309e-14</v>
       </c>
       <c r="C79">
-        <v>0.0086060892815944586</v>
+        <v>0.0034456785516956065</v>
       </c>
       <c r="D79">
-        <v>0.040232457096934772</v>
+        <v>0.2275890565335045</v>
       </c>
       <c r="E79">
-        <v>0.081703479356980246</v>
+        <v>0.083559181663157095</v>
       </c>
       <c r="F79">
-        <v>0.033915479014977996</v>
+        <v>0.031616509093847778</v>
       </c>
       <c r="G79">
-        <v>0.17764983145686994</v>
+        <v>0.18128627630934191</v>
       </c>
       <c r="H79">
-        <v>0.0061530151598351082</v>
+        <v>0.026232249112474331</v>
       </c>
       <c r="I79">
-        <v>0.08762154648891772</v>
+        <v>0.089624489432288346</v>
       </c>
       <c r="J79">
-        <v>0.090091019930110219</v>
+        <v>0.090414568901455633</v>
       </c>
       <c r="K79">
-        <v>0.026287673742779048</v>
+        <v>0.027407970914579586</v>
       </c>
       <c r="L79">
-        <v>0.024651595845937228</v>
+        <v>0.013360778408198387</v>
       </c>
       <c r="M79">
-        <v>0.094403973520647055</v>
+        <v>0.092427073225025982</v>
       </c>
       <c r="N79">
-        <v>0.067305863351247538</v>
+        <v>0.086509339169329333</v>
       </c>
       <c r="O79">
-        <v>0.26137797575314631</v>
+        <v>0.046526828685079215</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -4634,46 +4637,46 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2.2253109077277744e-14</v>
+        <v>2.2392868766767301e-14</v>
       </c>
       <c r="C80">
-        <v>0.015525446904526567</v>
+        <v>0.0086060892815944586</v>
       </c>
       <c r="D80">
-        <v>0.023185694326344951</v>
+        <v>0.040232457096934772</v>
       </c>
       <c r="E80">
-        <v>0.09343120343077721</v>
+        <v>0.081703479356980246</v>
       </c>
       <c r="F80">
-        <v>0.03770807561883404</v>
+        <v>0.033915479014977996</v>
       </c>
       <c r="G80">
-        <v>0.19118147617118483</v>
+        <v>0.17764983145686994</v>
       </c>
       <c r="H80">
-        <v>0.003850761480593158</v>
+        <v>0.0061530151598351082</v>
       </c>
       <c r="I80">
-        <v>0.10457675127126073</v>
+        <v>0.08762154648891772</v>
       </c>
       <c r="J80">
-        <v>0.10579362983616152</v>
+        <v>0.090091019930110219</v>
       </c>
       <c r="K80">
-        <v>0.04408870572278091</v>
+        <v>0.026287673742779048</v>
       </c>
       <c r="L80">
-        <v>0.03777301173141312</v>
+        <v>0.024651595845937228</v>
       </c>
       <c r="M80">
-        <v>0.10705238794828451</v>
+        <v>0.094403973520647055</v>
       </c>
       <c r="N80">
-        <v>0.099248747370732096</v>
+        <v>0.067305863351247538</v>
       </c>
       <c r="O80">
-        <v>0.13658410818708427</v>
+        <v>0.26137797575314631</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -4684,46 +4687,46 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.046819202847860605</v>
+        <v>2.2253109077277744e-14</v>
       </c>
       <c r="C81">
-        <v>0.030991065027532374</v>
+        <v>0.015525446904526567</v>
       </c>
       <c r="D81">
-        <v>0.13340307474290805</v>
+        <v>0.023185694326344951</v>
       </c>
       <c r="E81">
-        <v>0.092330059643848217</v>
+        <v>0.09343120343077721</v>
       </c>
       <c r="F81">
-        <v>0.030612448366882487</v>
+        <v>0.03770807561883404</v>
       </c>
       <c r="G81">
-        <v>0.19522670429037964</v>
+        <v>0.19118147617118483</v>
       </c>
       <c r="H81">
-        <v>0.013928372611392617</v>
+        <v>0.003850761480593158</v>
       </c>
       <c r="I81">
-        <v>0.10380529042547018</v>
+        <v>0.10457675127126073</v>
       </c>
       <c r="J81">
-        <v>0.091941259509787071</v>
+        <v>0.10579362983616152</v>
       </c>
       <c r="K81">
-        <v>0.028498487330169856</v>
+        <v>0.04408870572278091</v>
       </c>
       <c r="L81">
-        <v>0.0090529665529548355</v>
+        <v>0.03777301173141312</v>
       </c>
       <c r="M81">
-        <v>0.1085191918633366</v>
+        <v>0.10705238794828451</v>
       </c>
       <c r="N81">
-        <v>0.098667193024212604</v>
+        <v>0.099248747370732096</v>
       </c>
       <c r="O81">
-        <v>0.016204683763264813</v>
+        <v>0.13658410818708427</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -4734,46 +4737,46 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.052212790799076786</v>
+        <v>0.046819202847860605</v>
       </c>
       <c r="C82">
-        <v>0.0084928045373775761</v>
+        <v>0.030991065027532374</v>
       </c>
       <c r="D82">
-        <v>0.08868809877646841</v>
+        <v>0.13340307474290805</v>
       </c>
       <c r="E82">
-        <v>0.093623292895203797</v>
+        <v>0.092330059643848217</v>
       </c>
       <c r="F82">
-        <v>0.045656583473277279</v>
+        <v>0.030612448366882487</v>
       </c>
       <c r="G82">
-        <v>0.19374391593567866</v>
+        <v>0.19522670429037964</v>
       </c>
       <c r="H82">
-        <v>0.0066473708913608667</v>
+        <v>0.013928372611392617</v>
       </c>
       <c r="I82">
-        <v>0.11007067296869716</v>
+        <v>0.10380529042547018</v>
       </c>
       <c r="J82">
-        <v>0.09529721185152798</v>
+        <v>0.091941259509787071</v>
       </c>
       <c r="K82">
-        <v>0.034315599325617244</v>
+        <v>0.028498487330169856</v>
       </c>
       <c r="L82">
-        <v>0.03228622246553884</v>
+        <v>0.0090529665529548355</v>
       </c>
       <c r="M82">
-        <v>0.1111667509795749</v>
+        <v>0.1085191918633366</v>
       </c>
       <c r="N82">
-        <v>0.091280994765771339</v>
+        <v>0.098667193024212604</v>
       </c>
       <c r="O82">
-        <v>0.036517690334829198</v>
+        <v>0.016204683763264813</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -4784,46 +4787,46 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.090487297353990137</v>
+        <v>0.052212790799076786</v>
       </c>
       <c r="C83">
-        <v>0.020040540144194593</v>
+        <v>0.0084928045373775761</v>
       </c>
       <c r="D83">
-        <v>0.032480479889182567</v>
+        <v>0.08868809877646841</v>
       </c>
       <c r="E83">
-        <v>0.096905632155283111</v>
+        <v>0.093623292895203797</v>
       </c>
       <c r="F83">
-        <v>0.050525453623826794</v>
+        <v>0.045656583473277279</v>
       </c>
       <c r="G83">
-        <v>0.19535972266515303</v>
+        <v>0.19374391593567866</v>
       </c>
       <c r="H83">
-        <v>0.011939870237915647</v>
+        <v>0.0066473708913608667</v>
       </c>
       <c r="I83">
-        <v>0.10095265547643793</v>
+        <v>0.11007067296869716</v>
       </c>
       <c r="J83">
-        <v>0.11238442708299848</v>
+        <v>0.09529721185152798</v>
       </c>
       <c r="K83">
-        <v>0.05311657493628142</v>
+        <v>0.034315599325617244</v>
       </c>
       <c r="L83">
-        <v>0.027380956956479421</v>
+        <v>0.03228622246553884</v>
       </c>
       <c r="M83">
-        <v>0.10732134122489118</v>
+        <v>0.1111667509795749</v>
       </c>
       <c r="N83">
-        <v>0.082516869775401999</v>
+        <v>0.091280994765771339</v>
       </c>
       <c r="O83">
-        <v>0.018588178477963752</v>
+        <v>0.036517690334829198</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -4834,46 +4837,46 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2.2212300164015491e-14</v>
+        <v>0.090487297353990137</v>
       </c>
       <c r="C84">
-        <v>0.0077385453764637641</v>
+        <v>0.020040540144194593</v>
       </c>
       <c r="D84">
-        <v>0.16027762903253076</v>
+        <v>0.032480479889182567</v>
       </c>
       <c r="E84">
-        <v>0.092573702171987668</v>
+        <v>0.096905632155283111</v>
       </c>
       <c r="F84">
-        <v>0.0399160936048258</v>
+        <v>0.050525453623826794</v>
       </c>
       <c r="G84">
-        <v>0.19220981801682469</v>
+        <v>0.19535972266515303</v>
       </c>
       <c r="H84">
-        <v>0.0041955554851029692</v>
+        <v>0.011939870237915647</v>
       </c>
       <c r="I84">
-        <v>0.10503629169590122</v>
+        <v>0.10095265547643793</v>
       </c>
       <c r="J84">
-        <v>0.093681400923141603</v>
+        <v>0.11238442708299848</v>
       </c>
       <c r="K84">
-        <v>0.047664278215211978</v>
+        <v>0.05311657493628142</v>
       </c>
       <c r="L84">
-        <v>0.046006704907995792</v>
+        <v>0.027380956956479421</v>
       </c>
       <c r="M84">
-        <v>0.10639003548789382</v>
+        <v>0.10732134122489118</v>
       </c>
       <c r="N84">
-        <v>0.090744090970746205</v>
+        <v>0.082516869775401999</v>
       </c>
       <c r="O84">
-        <v>0.013565854111351461</v>
+        <v>0.018588178477963752</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -4884,46 +4887,46 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2.4038760834925494e-14</v>
+        <v>2.2212300164015491e-14</v>
       </c>
       <c r="C85">
-        <v>0.0093368125782591471</v>
+        <v>0.0077385453764637641</v>
       </c>
       <c r="D85">
-        <v>0.093814880001987982</v>
+        <v>0.16027762903253076</v>
       </c>
       <c r="E85">
-        <v>0.099911590113351212</v>
+        <v>0.092573702171987668</v>
       </c>
       <c r="F85">
-        <v>0.035127249896360659</v>
+        <v>0.0399160936048258</v>
       </c>
       <c r="G85">
-        <v>0.21253366435524351</v>
+        <v>0.19220981801682469</v>
       </c>
       <c r="H85">
-        <v>0.020886208809495575</v>
+        <v>0.0041955554851029692</v>
       </c>
       <c r="I85">
-        <v>0.10528871420336498</v>
+        <v>0.10503629169590122</v>
       </c>
       <c r="J85">
-        <v>0.097456288907537672</v>
+        <v>0.093681400923141603</v>
       </c>
       <c r="K85">
-        <v>0.060044115365817372</v>
+        <v>0.047664278215211978</v>
       </c>
       <c r="L85">
-        <v>0.024171653713475166</v>
+        <v>0.046006704907995792</v>
       </c>
       <c r="M85">
-        <v>0.12237694985908323</v>
+        <v>0.10639003548789382</v>
       </c>
       <c r="N85">
-        <v>0.11809389988146395</v>
+        <v>0.090744090970746205</v>
       </c>
       <c r="O85">
-        <v>0.00095797231453555859</v>
+        <v>0.013565854111351461</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -4934,46 +4937,46 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.092113787527120128</v>
+        <v>2.4038760834925494e-14</v>
       </c>
       <c r="C86">
-        <v>0.019574968446982172</v>
+        <v>0.0093368125782591471</v>
       </c>
       <c r="D86">
-        <v>0.016992556546307672</v>
+        <v>0.093814880001987982</v>
       </c>
       <c r="E86">
-        <v>0.098401983998325088</v>
+        <v>0.099911590113351212</v>
       </c>
       <c r="F86">
-        <v>0.043160839481289341</v>
+        <v>0.035127249896360659</v>
       </c>
       <c r="G86">
-        <v>0.19593560658370288</v>
+        <v>0.21253366435524351</v>
       </c>
       <c r="H86">
-        <v>0.021383097791210885</v>
+        <v>0.020886208809495575</v>
       </c>
       <c r="I86">
-        <v>0.10394503599960819</v>
+        <v>0.10528871420336498</v>
       </c>
       <c r="J86">
-        <v>0.10231505745596646</v>
+        <v>0.097456288907537672</v>
       </c>
       <c r="K86">
-        <v>0.037285013147368207</v>
+        <v>0.060044115365817372</v>
       </c>
       <c r="L86">
-        <v>0.026218400252813353</v>
+        <v>0.024171653713475166</v>
       </c>
       <c r="M86">
-        <v>0.11793658026944821</v>
+        <v>0.12237694985908323</v>
       </c>
       <c r="N86">
-        <v>0.10912255010363997</v>
+        <v>0.11809389988146395</v>
       </c>
       <c r="O86">
-        <v>0.01561452239621741</v>
+        <v>0.00095797231453555859</v>
       </c>
       <c r="P86">
         <v>1</v>
@@ -4984,46 +4987,46 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2.495611822060275e-14</v>
+        <v>0.092113787527120128</v>
       </c>
       <c r="C87">
-        <v>0.0089886137915539399</v>
+        <v>0.019574968446982172</v>
       </c>
       <c r="D87">
-        <v>0.00072989694745245715</v>
+        <v>0.016992556546307672</v>
       </c>
       <c r="E87">
-        <v>0.10415959731794613</v>
+        <v>0.098401983998325088</v>
       </c>
       <c r="F87">
-        <v>0.043995712578054909</v>
+        <v>0.043160839481289341</v>
       </c>
       <c r="G87">
-        <v>0.2131992570408405</v>
+        <v>0.19593560658370288</v>
       </c>
       <c r="H87">
-        <v>0.0050003203185247404</v>
+        <v>0.021383097791210885</v>
       </c>
       <c r="I87">
-        <v>0.11977392602012384</v>
+        <v>0.10394503599960819</v>
       </c>
       <c r="J87">
-        <v>0.10702210489112007</v>
+        <v>0.10231505745596646</v>
       </c>
       <c r="K87">
-        <v>0.033604544177532968</v>
+        <v>0.037285013147368207</v>
       </c>
       <c r="L87">
-        <v>0.048428784311327008</v>
+        <v>0.026218400252813353</v>
       </c>
       <c r="M87">
-        <v>0.12402662251649858</v>
+        <v>0.11793658026944821</v>
       </c>
       <c r="N87">
-        <v>0.09349527455554546</v>
+        <v>0.10912255010363997</v>
       </c>
       <c r="O87">
-        <v>0.097575345533454483</v>
+        <v>0.01561452239621741</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -5034,46 +5037,46 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.085048180603929768</v>
+        <v>2.495611822060275e-14</v>
       </c>
       <c r="C88">
-        <v>0.010487096606070372</v>
+        <v>0.0089886137915539399</v>
       </c>
       <c r="D88">
-        <v>0.032979144122152707</v>
+        <v>0.00072989694745245715</v>
       </c>
       <c r="E88">
-        <v>0.096205650832184936</v>
+        <v>0.10415959731794613</v>
       </c>
       <c r="F88">
-        <v>0.037186033360446756</v>
+        <v>0.043995712578054909</v>
       </c>
       <c r="G88">
-        <v>0.20559418066295274</v>
+        <v>0.2131992570408405</v>
       </c>
       <c r="H88">
-        <v>0.029916685914764103</v>
+        <v>0.0050003203185247404</v>
       </c>
       <c r="I88">
-        <v>0.1072708761143054</v>
+        <v>0.11977392602012384</v>
       </c>
       <c r="J88">
-        <v>0.093177623453908967</v>
+        <v>0.10702210489112007</v>
       </c>
       <c r="K88">
-        <v>0.046967147453480358</v>
+        <v>0.033604544177532968</v>
       </c>
       <c r="L88">
-        <v>0.045306385459873824</v>
+        <v>0.048428784311327008</v>
       </c>
       <c r="M88">
-        <v>0.11315827450122938</v>
+        <v>0.12402662251649858</v>
       </c>
       <c r="N88">
-        <v>0.085902570472797132</v>
+        <v>0.09349527455554546</v>
       </c>
       <c r="O88">
-        <v>0.010800150441903616</v>
+        <v>0.097575345533454483</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -5084,46 +5087,46 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.078063839763604106</v>
+        <v>0.085048180603929768</v>
       </c>
       <c r="C89">
-        <v>0.014436229011463984</v>
+        <v>0.010487096606070372</v>
       </c>
       <c r="D89">
-        <v>0.023331093269933281</v>
+        <v>0.032979144122152707</v>
       </c>
       <c r="E89">
-        <v>0.096965019399971653</v>
+        <v>0.096205650832184936</v>
       </c>
       <c r="F89">
-        <v>0.041901727495330755</v>
+        <v>0.037186033360446756</v>
       </c>
       <c r="G89">
-        <v>0.19557909557227529</v>
+        <v>0.20559418066295274</v>
       </c>
       <c r="H89">
-        <v>0.030497606502835044</v>
+        <v>0.029916685914764103</v>
       </c>
       <c r="I89">
-        <v>0.11846394322318909</v>
+        <v>0.1072708761143054</v>
       </c>
       <c r="J89">
-        <v>0.10815052949901222</v>
+        <v>0.093177623453908967</v>
       </c>
       <c r="K89">
-        <v>0.038050277487033365</v>
+        <v>0.046967147453480358</v>
       </c>
       <c r="L89">
-        <v>0.015588126898337426</v>
+        <v>0.045306385459873824</v>
       </c>
       <c r="M89">
-        <v>0.11182271226402844</v>
+        <v>0.11315827450122938</v>
       </c>
       <c r="N89">
-        <v>0.11216460837593543</v>
+        <v>0.085902570472797132</v>
       </c>
       <c r="O89">
-        <v>0.014985191237049902</v>
+        <v>0.010800150441903616</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -5134,46 +5137,46 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.062125583215777457</v>
+        <v>0.078063839763604106</v>
       </c>
       <c r="C90">
-        <v>0.011281337414171219</v>
+        <v>0.014436229011463984</v>
       </c>
       <c r="D90">
-        <v>0.021824613776135319</v>
+        <v>0.023331093269933281</v>
       </c>
       <c r="E90">
-        <v>0.095598333554376108</v>
+        <v>0.096965019399971653</v>
       </c>
       <c r="F90">
-        <v>0.039937535941345657</v>
+        <v>0.041901727495330755</v>
       </c>
       <c r="G90">
-        <v>0.19202231700909694</v>
+        <v>0.19557909557227529</v>
       </c>
       <c r="H90">
-        <v>0.01315866817460299</v>
+        <v>0.030497606502835044</v>
       </c>
       <c r="I90">
-        <v>0.10782012972163053</v>
+        <v>0.11846394322318909</v>
       </c>
       <c r="J90">
-        <v>0.093087196816707879</v>
+        <v>0.10815052949901222</v>
       </c>
       <c r="K90">
-        <v>0.064829717778328882</v>
+        <v>0.038050277487033365</v>
       </c>
       <c r="L90">
-        <v>0.062887815722031989</v>
+        <v>0.015588126898337426</v>
       </c>
       <c r="M90">
-        <v>0.11723290890145294</v>
+        <v>0.11182271226402844</v>
       </c>
       <c r="N90">
-        <v>0.11116020767002627</v>
+        <v>0.11216460837593543</v>
       </c>
       <c r="O90">
-        <v>0.0070336343043157891</v>
+        <v>0.014985191237049902</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -5184,46 +5187,46 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2.2547090609010596e-14</v>
+        <v>0.062125583215777457</v>
       </c>
       <c r="C91">
-        <v>0.01377645451288209</v>
+        <v>0.011281337414171219</v>
       </c>
       <c r="D91">
-        <v>0.016163172877038431</v>
+        <v>0.021824613776135319</v>
       </c>
       <c r="E91">
-        <v>0.072528797238278944</v>
+        <v>0.095598333554376108</v>
       </c>
       <c r="F91">
-        <v>0.027006099354328558</v>
+        <v>0.039937535941345657</v>
       </c>
       <c r="G91">
-        <v>0.15956148557503672</v>
+        <v>0.19202231700909694</v>
       </c>
       <c r="H91">
-        <v>0.0049998575407507904</v>
+        <v>0.01315866817460299</v>
       </c>
       <c r="I91">
-        <v>0.07414907068695871</v>
+        <v>0.10782012972163053</v>
       </c>
       <c r="J91">
-        <v>0.076573631895267474</v>
+        <v>0.093087196816707879</v>
       </c>
       <c r="K91">
-        <v>0.027190984752960289</v>
+        <v>0.064829717778328882</v>
       </c>
       <c r="L91">
-        <v>0.023824714237729819</v>
+        <v>0.062887815722031989</v>
       </c>
       <c r="M91">
-        <v>0.083651347481160529</v>
+        <v>0.11723290890145294</v>
       </c>
       <c r="N91">
-        <v>0.076049917108564</v>
+        <v>0.11116020767002627</v>
       </c>
       <c r="O91">
-        <v>0.34452446673902126</v>
+        <v>0.0070336343043157891</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -5234,46 +5237,46 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2.4336572274712567e-14</v>
+        <v>2.2547090609010596e-14</v>
       </c>
       <c r="C92">
-        <v>0.00072290911441268764</v>
+        <v>0.01377645451288209</v>
       </c>
       <c r="D92">
-        <v>0.041344214513790625</v>
+        <v>0.016163172877038431</v>
       </c>
       <c r="E92">
-        <v>0.10095747843066191</v>
+        <v>0.072528797238278944</v>
       </c>
       <c r="F92">
-        <v>0.043223349363644692</v>
+        <v>0.027006099354328558</v>
       </c>
       <c r="G92">
-        <v>0.21291717751030451</v>
+        <v>0.15956148557503672</v>
       </c>
       <c r="H92">
-        <v>0.065176135059850843</v>
+        <v>0.0049998575407507904</v>
       </c>
       <c r="I92">
-        <v>0.11701469647450247</v>
+        <v>0.07414907068695871</v>
       </c>
       <c r="J92">
-        <v>0.10432457466891248</v>
+        <v>0.076573631895267474</v>
       </c>
       <c r="K92">
-        <v>0.071207152184831382</v>
+        <v>0.027190984752960289</v>
       </c>
       <c r="L92">
-        <v>0.016773616976456209</v>
+        <v>0.023824714237729819</v>
       </c>
       <c r="M92">
-        <v>0.1217971315208919</v>
+        <v>0.083651347481160529</v>
       </c>
       <c r="N92">
-        <v>0.097612814203527937</v>
+        <v>0.076049917108564</v>
       </c>
       <c r="O92">
-        <v>0.0069287499781880207</v>
+        <v>0.34452446673902126</v>
       </c>
       <c r="P92">
         <v>1</v>
@@ -5284,46 +5287,46 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2.2599181447485146e-14</v>
+        <v>2.4336572274712567e-14</v>
       </c>
       <c r="C93">
-        <v>0.013494611100365882</v>
+        <v>0.00072290911441268764</v>
       </c>
       <c r="D93">
-        <v>0.042049671054434502</v>
+        <v>0.041344214513790625</v>
       </c>
       <c r="E93">
-        <v>0.094146063367306534</v>
+        <v>0.10095747843066191</v>
       </c>
       <c r="F93">
-        <v>0.03416345655627246</v>
+        <v>0.043223349363644692</v>
       </c>
       <c r="G93">
-        <v>0.19985339823006873</v>
+        <v>0.21291717751030451</v>
       </c>
       <c r="H93">
-        <v>0.016481343288369636</v>
+        <v>0.065176135059850843</v>
       </c>
       <c r="I93">
-        <v>0.096862570798962766</v>
+        <v>0.11701469647450247</v>
       </c>
       <c r="J93">
-        <v>0.10237589985614075</v>
+        <v>0.10432457466891248</v>
       </c>
       <c r="K93">
-        <v>0.019345639503455976</v>
+        <v>0.071207152184831382</v>
       </c>
       <c r="L93">
-        <v>0.011236970183761378</v>
+        <v>0.016773616976456209</v>
       </c>
       <c r="M93">
-        <v>0.11164367018595499</v>
+        <v>0.1217971315208919</v>
       </c>
       <c r="N93">
-        <v>0.086902287721702109</v>
+        <v>0.097612814203527937</v>
       </c>
       <c r="O93">
-        <v>0.17144441815318165</v>
+        <v>0.0069287499781880207</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -5334,46 +5337,46 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.078775857477271075</v>
+        <v>2.2599181447485146e-14</v>
       </c>
       <c r="C94">
-        <v>0.0099811581136741503</v>
+        <v>0.013494611100365882</v>
       </c>
       <c r="D94">
-        <v>0.0080381216309836096</v>
+        <v>0.042049671054434502</v>
       </c>
       <c r="E94">
-        <v>0.097466302546898323</v>
+        <v>0.094146063367306534</v>
       </c>
       <c r="F94">
-        <v>0.041864316484600546</v>
+        <v>0.03416345655627246</v>
       </c>
       <c r="G94">
-        <v>0.20002652597295445</v>
+        <v>0.19985339823006873</v>
       </c>
       <c r="H94">
-        <v>0.014728888221615813</v>
+        <v>0.016481343288369636</v>
       </c>
       <c r="I94">
-        <v>0.097058888820724165</v>
+        <v>0.096862570798962766</v>
       </c>
       <c r="J94">
-        <v>0.095965735793040408</v>
+        <v>0.10237589985614075</v>
       </c>
       <c r="K94">
-        <v>0.050975291726324673</v>
+        <v>0.019345639503455976</v>
       </c>
       <c r="L94">
-        <v>0.054699918407590836</v>
+        <v>0.011236970183761378</v>
       </c>
       <c r="M94">
-        <v>0.11864612537878232</v>
+        <v>0.11164367018595499</v>
       </c>
       <c r="N94">
-        <v>0.092059528637037341</v>
+        <v>0.086902287721702109</v>
       </c>
       <c r="O94">
-        <v>0.039713340788502284</v>
+        <v>0.17144441815318165</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -5384,46 +5387,46 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2.2338690123497275e-14</v>
+        <v>0.078775857477271075</v>
       </c>
       <c r="C95">
-        <v>0.015301369868485555</v>
+        <v>0.0099811581136741503</v>
       </c>
       <c r="D95">
-        <v>0.19605510566078566</v>
+        <v>0.0080381216309836096</v>
       </c>
       <c r="E95">
-        <v>0.085444359626686492</v>
+        <v>0.097466302546898323</v>
       </c>
       <c r="F95">
-        <v>0.032866623927698915</v>
+        <v>0.041864316484600546</v>
       </c>
       <c r="G95">
-        <v>0.18209609947797872</v>
+        <v>0.20002652597295445</v>
       </c>
       <c r="H95">
-        <v>0.020460744749765763</v>
+        <v>0.014728888221615813</v>
       </c>
       <c r="I95">
-        <v>0.10202999600999416</v>
+        <v>0.097058888820724165</v>
       </c>
       <c r="J95">
-        <v>0.087989224506121927</v>
+        <v>0.095965735793040408</v>
       </c>
       <c r="K95">
-        <v>0.047059021181286693</v>
+        <v>0.050975291726324673</v>
       </c>
       <c r="L95">
-        <v>0.0063895423963294552</v>
+        <v>0.054699918407590836</v>
       </c>
       <c r="M95">
-        <v>0.097029423234059178</v>
+        <v>0.11864612537878232</v>
       </c>
       <c r="N95">
-        <v>0.088080850177747888</v>
+        <v>0.092059528637037341</v>
       </c>
       <c r="O95">
-        <v>0.039197639183037182</v>
+        <v>0.039713340788502284</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -5434,46 +5437,46 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.095536275691421924</v>
+        <v>2.2338690123497275e-14</v>
       </c>
       <c r="C96">
-        <v>0.019717058164229237</v>
+        <v>0.015301369868485555</v>
       </c>
       <c r="D96">
-        <v>0.026054223192674298</v>
+        <v>0.19605510566078566</v>
       </c>
       <c r="E96">
-        <v>0.098259579070298128</v>
+        <v>0.085444359626686492</v>
       </c>
       <c r="F96">
-        <v>0.048209380855006902</v>
+        <v>0.032866623927698915</v>
       </c>
       <c r="G96">
-        <v>0.1973267894800301</v>
+        <v>0.18209609947797872</v>
       </c>
       <c r="H96">
-        <v>0.012421633283056208</v>
+        <v>0.020460744749765763</v>
       </c>
       <c r="I96">
-        <v>0.096207953659329604</v>
+        <v>0.10202999600999416</v>
       </c>
       <c r="J96">
-        <v>0.10511793368042097</v>
+        <v>0.087989224506121927</v>
       </c>
       <c r="K96">
-        <v>0.048224034709853696</v>
+        <v>0.047059021181286693</v>
       </c>
       <c r="L96">
-        <v>0.023910642886390946</v>
+        <v>0.0063895423963294552</v>
       </c>
       <c r="M96">
-        <v>0.11596069245354756</v>
+        <v>0.097029423234059178</v>
       </c>
       <c r="N96">
-        <v>0.10333104785261718</v>
+        <v>0.088080850177747888</v>
       </c>
       <c r="O96">
-        <v>0.0097227550211232208</v>
+        <v>0.039197639183037182</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5484,46 +5487,46 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2.2619902507191077e-14</v>
+        <v>0.095536275691421924</v>
       </c>
       <c r="C97">
-        <v>0.013903998603109913</v>
+        <v>0.019717058164229237</v>
       </c>
       <c r="D97">
-        <v>0.14132244155026485</v>
+        <v>0.026054223192674298</v>
       </c>
       <c r="E97">
-        <v>0.095298669483682347</v>
+        <v>0.098259579070298128</v>
       </c>
       <c r="F97">
-        <v>0.040481388505831467</v>
+        <v>0.048209380855006902</v>
       </c>
       <c r="G97">
-        <v>0.1963402814999356</v>
+        <v>0.1973267894800301</v>
       </c>
       <c r="H97">
-        <v>0.023937760365777265</v>
+        <v>0.012421633283056208</v>
       </c>
       <c r="I97">
-        <v>0.10928168766619573</v>
+        <v>0.096207953659329604</v>
       </c>
       <c r="J97">
-        <v>0.093376971845968659</v>
+        <v>0.10511793368042097</v>
       </c>
       <c r="K97">
-        <v>0.042265419145891325</v>
+        <v>0.048224034709853696</v>
       </c>
       <c r="L97">
-        <v>0.010885928606221208</v>
+        <v>0.023910642886390946</v>
       </c>
       <c r="M97">
-        <v>0.11000352852316572</v>
+        <v>0.11596069245354756</v>
       </c>
       <c r="N97">
-        <v>0.11248523091823291</v>
+        <v>0.10333104785261718</v>
       </c>
       <c r="O97">
-        <v>0.010416693285700423</v>
+        <v>0.0097227550211232208</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -5534,46 +5537,46 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.054247400691362656</v>
+        <v>2.2619902507191077e-14</v>
       </c>
       <c r="C98">
-        <v>0.010940152885295618</v>
+        <v>0.013903998603109913</v>
       </c>
       <c r="D98">
-        <v>0.12411113352326643</v>
+        <v>0.14132244155026485</v>
       </c>
       <c r="E98">
-        <v>0.093767671593626423</v>
+        <v>0.095298669483682347</v>
       </c>
       <c r="F98">
-        <v>0.042349950227531907</v>
+        <v>0.040481388505831467</v>
       </c>
       <c r="G98">
-        <v>0.19376045378236315</v>
+        <v>0.1963402814999356</v>
       </c>
       <c r="H98">
-        <v>0.0076148144948005869</v>
+        <v>0.023937760365777265</v>
       </c>
       <c r="I98">
-        <v>0.10393631024432247</v>
+        <v>0.10928168766619573</v>
       </c>
       <c r="J98">
-        <v>0.099384385053736632</v>
+        <v>0.093376971845968659</v>
       </c>
       <c r="K98">
-        <v>0.038456792555862325</v>
+        <v>0.042265419145891325</v>
       </c>
       <c r="L98">
-        <v>0.023372998045823927</v>
+        <v>0.010885928606221208</v>
       </c>
       <c r="M98">
-        <v>0.1107985670176474</v>
+        <v>0.11000352852316572</v>
       </c>
       <c r="N98">
-        <v>0.076001788729438302</v>
+        <v>0.11248523091823291</v>
       </c>
       <c r="O98">
-        <v>0.021257581154922243</v>
+        <v>0.010416693285700423</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -5584,46 +5587,46 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.091103826784507583</v>
+        <v>0.054247400691362656</v>
       </c>
       <c r="C99">
-        <v>0.015425035938035719</v>
+        <v>0.010940152885295618</v>
       </c>
       <c r="D99">
-        <v>0.042303925965501171</v>
+        <v>0.12411113352326643</v>
       </c>
       <c r="E99">
-        <v>0.097074001644648286</v>
+        <v>0.093767671593626423</v>
       </c>
       <c r="F99">
-        <v>0.045337940278774129</v>
+        <v>0.042349950227531907</v>
       </c>
       <c r="G99">
-        <v>0.19941048941096309</v>
+        <v>0.19376045378236315</v>
       </c>
       <c r="H99">
-        <v>0.019249774779294584</v>
+        <v>0.0076148144948005869</v>
       </c>
       <c r="I99">
-        <v>0.11229099257193845</v>
+        <v>0.10393631024432247</v>
       </c>
       <c r="J99">
-        <v>0.098272539634227149</v>
+        <v>0.099384385053736632</v>
       </c>
       <c r="K99">
-        <v>0.049911203850921161</v>
+        <v>0.038456792555862325</v>
       </c>
       <c r="L99">
-        <v>0.019251672416232934</v>
+        <v>0.023372998045823927</v>
       </c>
       <c r="M99">
-        <v>0.11310327022120145</v>
+        <v>0.1107985670176474</v>
       </c>
       <c r="N99">
-        <v>0.084579580576777988</v>
+        <v>0.076001788729438302</v>
       </c>
       <c r="O99">
-        <v>0.012685745926976418</v>
+        <v>0.021257581154922243</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -5634,46 +5637,46 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.091587793127147252</v>
+        <v>0.091103826784507583</v>
       </c>
       <c r="C100">
-        <v>0.011121907376708168</v>
+        <v>0.015425035938035719</v>
       </c>
       <c r="D100">
-        <v>0.012355590064447516</v>
+        <v>0.042303925965501171</v>
       </c>
       <c r="E100">
-        <v>0.09793052719351962</v>
+        <v>0.097074001644648286</v>
       </c>
       <c r="F100">
-        <v>0.044230278678362045</v>
+        <v>0.045337940278774129</v>
       </c>
       <c r="G100">
-        <v>0.20448761478061231</v>
+        <v>0.19941048941096309</v>
       </c>
       <c r="H100">
-        <v>0.022003868030837776</v>
+        <v>0.019249774779294584</v>
       </c>
       <c r="I100">
-        <v>0.11535915656104655</v>
+        <v>0.11229099257193845</v>
       </c>
       <c r="J100">
-        <v>0.10386116899777312</v>
+        <v>0.098272539634227149</v>
       </c>
       <c r="K100">
-        <v>0.065425074273822048</v>
+        <v>0.049911203850921161</v>
       </c>
       <c r="L100">
-        <v>0.031920387781712488</v>
+        <v>0.019251672416232934</v>
       </c>
       <c r="M100">
-        <v>0.1113449688932593</v>
+        <v>0.11310327022120145</v>
       </c>
       <c r="N100">
-        <v>0.074559324634642973</v>
+        <v>0.084579580576777988</v>
       </c>
       <c r="O100">
-        <v>0.013812339606108906</v>
+        <v>0.012685745926976418</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -5684,46 +5687,46 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2.2274982463147541e-14</v>
+        <v>0.091587793127147252</v>
       </c>
       <c r="C101">
-        <v>0.0082758565918356723</v>
+        <v>0.011121907376708168</v>
       </c>
       <c r="D101">
-        <v>0.19008042280037266</v>
+        <v>0.012355590064447516</v>
       </c>
       <c r="E101">
-        <v>0.088883117675908188</v>
+        <v>0.09793052719351962</v>
       </c>
       <c r="F101">
-        <v>0.039933872095551604</v>
+        <v>0.044230278678362045</v>
       </c>
       <c r="G101">
-        <v>0.1822362353126678</v>
+        <v>0.20448761478061231</v>
       </c>
       <c r="H101">
-        <v>0.0091730748804909352</v>
+        <v>0.022003868030837776</v>
       </c>
       <c r="I101">
-        <v>0.094979618220036963</v>
+        <v>0.11535915656104655</v>
       </c>
       <c r="J101">
-        <v>0.10094683977292893</v>
+        <v>0.10386116899777312</v>
       </c>
       <c r="K101">
-        <v>0.02764736566068909</v>
+        <v>0.065425074273822048</v>
       </c>
       <c r="L101">
-        <v>0.018313562981070078</v>
+        <v>0.031920387781712488</v>
       </c>
       <c r="M101">
-        <v>0.10348867019421419</v>
+        <v>0.1113449688932593</v>
       </c>
       <c r="N101">
-        <v>0.084531942363993473</v>
+        <v>0.074559324634642973</v>
       </c>
       <c r="O101">
-        <v>0.051509421450218196</v>
+        <v>0.013812339606108906</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -5734,46 +5737,46 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.049377304398061532</v>
+        <v>2.2274982463147541e-14</v>
       </c>
       <c r="C102">
-        <v>0.0097651099518940802</v>
+        <v>0.0082758565918356723</v>
       </c>
       <c r="D102">
-        <v>0.12593106443511798</v>
+        <v>0.19008042280037266</v>
       </c>
       <c r="E102">
-        <v>0.092757317573089665</v>
+        <v>0.088883117675908188</v>
       </c>
       <c r="F102">
-        <v>0.041839689738143379</v>
+        <v>0.039933872095551604</v>
       </c>
       <c r="G102">
-        <v>0.19392058030431944</v>
+        <v>0.1822362353126678</v>
       </c>
       <c r="H102">
-        <v>0.010031037549602041</v>
+        <v>0.0091730748804909352</v>
       </c>
       <c r="I102">
-        <v>0.10190250712091656</v>
+        <v>0.094979618220036963</v>
       </c>
       <c r="J102">
-        <v>0.1018298547392248</v>
+        <v>0.10094683977292893</v>
       </c>
       <c r="K102">
-        <v>0.040315586354618904</v>
+        <v>0.02764736566068909</v>
       </c>
       <c r="L102">
-        <v>0.02098525068866568</v>
+        <v>0.018313562981070078</v>
       </c>
       <c r="M102">
-        <v>0.11221900483284529</v>
+        <v>0.10348867019421419</v>
       </c>
       <c r="N102">
-        <v>0.069551554163623089</v>
+        <v>0.084531942363993473</v>
       </c>
       <c r="O102">
-        <v>0.029574138149877506</v>
+        <v>0.051509421450218196</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -5784,46 +5787,46 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.079872838690045758</v>
+        <v>0.049377304398061532</v>
       </c>
       <c r="C103">
-        <v>0.011587543609806832</v>
+        <v>0.0097651099518940802</v>
       </c>
       <c r="D103">
-        <v>0.0083941761769648227</v>
+        <v>0.12593106443511798</v>
       </c>
       <c r="E103">
-        <v>0.097340264014269096</v>
+        <v>0.092757317573089665</v>
       </c>
       <c r="F103">
-        <v>0.040129111924210467</v>
+        <v>0.041839689738143379</v>
       </c>
       <c r="G103">
-        <v>0.1971823440407367</v>
+        <v>0.19392058030431944</v>
       </c>
       <c r="H103">
-        <v>0.018780908117111965</v>
+        <v>0.010031037549602041</v>
       </c>
       <c r="I103">
-        <v>0.10084746685633973</v>
+        <v>0.10190250712091656</v>
       </c>
       <c r="J103">
-        <v>0.10282977746955557</v>
+        <v>0.1018298547392248</v>
       </c>
       <c r="K103">
-        <v>0.041362129485872992</v>
+        <v>0.040315586354618904</v>
       </c>
       <c r="L103">
-        <v>0.084296332151663614</v>
+        <v>0.02098525068866568</v>
       </c>
       <c r="M103">
-        <v>0.11865230272687607</v>
+        <v>0.11221900483284529</v>
       </c>
       <c r="N103">
-        <v>0.087875089146019533</v>
+        <v>0.069551554163623089</v>
       </c>
       <c r="O103">
-        <v>0.010849715590526795</v>
+        <v>0.029574138149877506</v>
       </c>
       <c r="P103">
         <v>1</v>
@@ -5834,46 +5837,46 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.059668758795696768</v>
+        <v>0.079872838690045758</v>
       </c>
       <c r="C104">
-        <v>0.0061061240344398599</v>
+        <v>0.011587543609806832</v>
       </c>
       <c r="D104">
-        <v>0.040433064569372706</v>
+        <v>0.0083941761769648227</v>
       </c>
       <c r="E104">
-        <v>0.09323762953397019</v>
+        <v>0.097340264014269096</v>
       </c>
       <c r="F104">
-        <v>0.042908399657551881</v>
+        <v>0.040129111924210467</v>
       </c>
       <c r="G104">
-        <v>0.19472747149804948</v>
+        <v>0.1971823440407367</v>
       </c>
       <c r="H104">
-        <v>0.014427569202165629</v>
+        <v>0.018780908117111965</v>
       </c>
       <c r="I104">
-        <v>0.11266165702227014</v>
+        <v>0.10084746685633973</v>
       </c>
       <c r="J104">
-        <v>0.10149478956540958</v>
+        <v>0.10282977746955557</v>
       </c>
       <c r="K104">
-        <v>0.041070452811507778</v>
+        <v>0.041362129485872992</v>
       </c>
       <c r="L104">
-        <v>0.054507746113394422</v>
+        <v>0.084296332151663614</v>
       </c>
       <c r="M104">
-        <v>0.10888846980541307</v>
+        <v>0.11865230272687607</v>
       </c>
       <c r="N104">
-        <v>0.078256376435158939</v>
+        <v>0.087875089146019533</v>
       </c>
       <c r="O104">
-        <v>0.051611490955599776</v>
+        <v>0.010849715590526795</v>
       </c>
       <c r="P104">
         <v>1</v>
@@ -5884,46 +5887,46 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.048821121618856024</v>
+        <v>0.059668758795696768</v>
       </c>
       <c r="C105">
-        <v>0.012346011048428267</v>
+        <v>0.0061061240344398599</v>
       </c>
       <c r="D105">
-        <v>0.10496346453943539</v>
+        <v>0.040433064569372706</v>
       </c>
       <c r="E105">
-        <v>0.091699429415720776</v>
+        <v>0.09323762953397019</v>
       </c>
       <c r="F105">
-        <v>0.033651275394468841</v>
+        <v>0.042908399657551881</v>
       </c>
       <c r="G105">
-        <v>0.1990723604656093</v>
+        <v>0.19472747149804948</v>
       </c>
       <c r="H105">
-        <v>0.019612533630648146</v>
+        <v>0.014427569202165629</v>
       </c>
       <c r="I105">
-        <v>0.10242289158181915</v>
+        <v>0.11266165702227014</v>
       </c>
       <c r="J105">
-        <v>0.083742983001733384</v>
+        <v>0.10149478956540958</v>
       </c>
       <c r="K105">
-        <v>0.042803367645105096</v>
+        <v>0.041070452811507778</v>
       </c>
       <c r="L105">
-        <v>0.016165345204036504</v>
+        <v>0.054507746113394422</v>
       </c>
       <c r="M105">
-        <v>0.11068090646328657</v>
+        <v>0.10888846980541307</v>
       </c>
       <c r="N105">
-        <v>0.10375448406926081</v>
+        <v>0.078256376435158939</v>
       </c>
       <c r="O105">
-        <v>0.030263825921591693</v>
+        <v>0.051611490955599776</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -5934,49 +5937,49 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2.2761155710860282e-14</v>
+        <v>0.048821121618856024</v>
       </c>
       <c r="C106">
-        <v>0.00073805031906626318</v>
+        <v>0.012346011048428267</v>
       </c>
       <c r="D106">
-        <v>0.46945048710457515</v>
+        <v>0.10496346453943539</v>
       </c>
       <c r="E106">
-        <v>0.058065270332637781</v>
+        <v>0.091699429415720776</v>
       </c>
       <c r="F106">
-        <v>0.025878561561152681</v>
+        <v>0.033651275394468841</v>
       </c>
       <c r="G106">
-        <v>0.12568758025454396</v>
+        <v>0.1990723604656093</v>
       </c>
       <c r="H106">
-        <v>0.024435311062848214</v>
+        <v>0.019612533630648146</v>
       </c>
       <c r="I106">
-        <v>0.068547061115640129</v>
+        <v>0.10242289158181915</v>
       </c>
       <c r="J106">
-        <v>0.064692108869432358</v>
+        <v>0.083742983001733384</v>
       </c>
       <c r="K106">
-        <v>0.027538949800757714</v>
+        <v>0.042803367645105096</v>
       </c>
       <c r="L106">
-        <v>0.0090737436569437863</v>
+        <v>0.016165345204036504</v>
       </c>
       <c r="M106">
-        <v>0.071813101320212999</v>
+        <v>0.11068090646328657</v>
       </c>
       <c r="N106">
-        <v>0.053443285359555358</v>
+        <v>0.10375448406926081</v>
       </c>
       <c r="O106">
-        <v>0.0006364892426106853</v>
+        <v>0.030263825921591693</v>
       </c>
       <c r="P106">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -5984,49 +5987,49 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.059892209131229883</v>
+        <v>2.2761155710860282e-14</v>
       </c>
       <c r="C107">
-        <v>0.023284644452678051</v>
+        <v>0.00073805031906626318</v>
       </c>
       <c r="D107">
-        <v>0.098511862766810815</v>
+        <v>0.46945048710457515</v>
       </c>
       <c r="E107">
-        <v>0.094756446527869298</v>
+        <v>0.058065270332637781</v>
       </c>
       <c r="F107">
-        <v>0.041605793280700007</v>
+        <v>0.025878561561152681</v>
       </c>
       <c r="G107">
-        <v>0.19420627313101638</v>
+        <v>0.12568758025454396</v>
       </c>
       <c r="H107">
-        <v>0.0077973179999808826</v>
+        <v>0.024435311062848214</v>
       </c>
       <c r="I107">
-        <v>0.095031174912501667</v>
+        <v>0.068547061115640129</v>
       </c>
       <c r="J107">
-        <v>0.10287103681100739</v>
+        <v>0.064692108869432358</v>
       </c>
       <c r="K107">
-        <v>0.043520367669528687</v>
+        <v>0.027538949800757714</v>
       </c>
       <c r="L107">
-        <v>0.027007391491377489</v>
+        <v>0.0090737436569437863</v>
       </c>
       <c r="M107">
-        <v>0.1128075026304115</v>
+        <v>0.071813101320212999</v>
       </c>
       <c r="N107">
-        <v>0.089827839662763004</v>
+        <v>0.053443285359555358</v>
       </c>
       <c r="O107">
-        <v>0.0088801395321248863</v>
+        <v>0.0006364892426106853</v>
       </c>
       <c r="P107">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -6034,46 +6037,46 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.047161210846390196</v>
+        <v>0.059892209131229883</v>
       </c>
       <c r="C108">
-        <v>0.017813779308147242</v>
+        <v>0.023284644452678051</v>
       </c>
       <c r="D108">
-        <v>0.13932820569276808</v>
+        <v>0.098511862766810815</v>
       </c>
       <c r="E108">
-        <v>0.092908125576951384</v>
+        <v>0.094756446527869298</v>
       </c>
       <c r="F108">
-        <v>0.04284948119326791</v>
+        <v>0.041605793280700007</v>
       </c>
       <c r="G108">
-        <v>0.19175341144841301</v>
+        <v>0.19420627313101638</v>
       </c>
       <c r="H108">
-        <v>0.0062536111425699724</v>
+        <v>0.0077973179999808826</v>
       </c>
       <c r="I108">
-        <v>0.088445539276404778</v>
+        <v>0.095031174912501667</v>
       </c>
       <c r="J108">
-        <v>0.092732713702277605</v>
+        <v>0.10287103681100739</v>
       </c>
       <c r="K108">
-        <v>0.038390306492373225</v>
+        <v>0.043520367669528687</v>
       </c>
       <c r="L108">
-        <v>0.023000905204760728</v>
+        <v>0.027007391491377489</v>
       </c>
       <c r="M108">
-        <v>0.11458116613716188</v>
+        <v>0.1128075026304115</v>
       </c>
       <c r="N108">
-        <v>0.094427127561550889</v>
+        <v>0.089827839662763004</v>
       </c>
       <c r="O108">
-        <v>0.010354416416963188</v>
+        <v>0.0088801395321248863</v>
       </c>
       <c r="P108">
         <v>1</v>
@@ -6134,46 +6137,46 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.2325281910286164e-14</v>
+        <v>0.047161210846390196</v>
       </c>
       <c r="C110">
-        <v>0.020943744736754786</v>
+        <v>0.017813779308147242</v>
       </c>
       <c r="D110">
-        <v>0.076830810681499856</v>
+        <v>0.13932820569276808</v>
       </c>
       <c r="E110">
-        <v>0.086439301304936919</v>
+        <v>0.092908125576951384</v>
       </c>
       <c r="F110">
-        <v>0.034673219993232182</v>
+        <v>0.04284948119326791</v>
       </c>
       <c r="G110">
-        <v>0.17744827757337903</v>
+        <v>0.19175341144841301</v>
       </c>
       <c r="H110">
-        <v>0.0054697394092858339</v>
+        <v>0.0062536111425699724</v>
       </c>
       <c r="I110">
-        <v>0.099271645251396534</v>
+        <v>0.088445539276404778</v>
       </c>
       <c r="J110">
-        <v>0.086196850404217831</v>
+        <v>0.092732713702277605</v>
       </c>
       <c r="K110">
-        <v>0.024373439336861834</v>
+        <v>0.038390306492373225</v>
       </c>
       <c r="L110">
-        <v>0.031954915573361956</v>
+        <v>0.023000905204760728</v>
       </c>
       <c r="M110">
-        <v>0.10193975790938356</v>
+        <v>0.11458116613716188</v>
       </c>
       <c r="N110">
-        <v>0.10088480717272105</v>
+        <v>0.094427127561550889</v>
       </c>
       <c r="O110">
-        <v>0.15357349065294632</v>
+        <v>0.010354416416963188</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -6184,46 +6187,46 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.058320890725921934</v>
+        <v>2.2325281910286164e-14</v>
       </c>
       <c r="C111">
-        <v>0.012491913186227582</v>
+        <v>0.020943744736754786</v>
       </c>
       <c r="D111">
-        <v>0.0361818067060539</v>
+        <v>0.076830810681499856</v>
       </c>
       <c r="E111">
-        <v>0.094486454227228386</v>
+        <v>0.086439301304936919</v>
       </c>
       <c r="F111">
-        <v>0.035583970525266066</v>
+        <v>0.034673219993232182</v>
       </c>
       <c r="G111">
-        <v>0.19664871772343356</v>
+        <v>0.17744827757337903</v>
       </c>
       <c r="H111">
-        <v>0.0092925282422500876</v>
+        <v>0.0054697394092858339</v>
       </c>
       <c r="I111">
-        <v>0.10114182847309472</v>
+        <v>0.099271645251396534</v>
       </c>
       <c r="J111">
-        <v>0.094090181423353098</v>
+        <v>0.086196850404217831</v>
       </c>
       <c r="K111">
-        <v>0.093673454642231896</v>
+        <v>0.024373439336861834</v>
       </c>
       <c r="L111">
-        <v>0.058339078579637646</v>
+        <v>0.031954915573361956</v>
       </c>
       <c r="M111">
-        <v>0.11230919164307354</v>
+        <v>0.10193975790938356</v>
       </c>
       <c r="N111">
-        <v>0.089765418833019223</v>
+        <v>0.10088480717272105</v>
       </c>
       <c r="O111">
-        <v>0.0076745650692084891</v>
+        <v>0.15357349065294632</v>
       </c>
       <c r="P111">
         <v>1</v>
@@ -6234,46 +6237,46 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.094366641330308351</v>
+        <v>0.058320890725921934</v>
       </c>
       <c r="C112">
-        <v>0.02221932723834031</v>
+        <v>0.012491913186227582</v>
       </c>
       <c r="D112">
-        <v>0.041893771195525585</v>
+        <v>0.0361818067060539</v>
       </c>
       <c r="E112">
-        <v>0.097662760538874169</v>
+        <v>0.094486454227228386</v>
       </c>
       <c r="F112">
-        <v>0.046642115240981268</v>
+        <v>0.035583970525266066</v>
       </c>
       <c r="G112">
-        <v>0.19791183176280375</v>
+        <v>0.19664871772343356</v>
       </c>
       <c r="H112">
-        <v>0.016136065990853536</v>
+        <v>0.0092925282422500876</v>
       </c>
       <c r="I112">
-        <v>0.094031088834221607</v>
+        <v>0.10114182847309472</v>
       </c>
       <c r="J112">
-        <v>0.11061668329887633</v>
+        <v>0.094090181423353098</v>
       </c>
       <c r="K112">
-        <v>0.04539827791081253</v>
+        <v>0.093673454642231896</v>
       </c>
       <c r="L112">
-        <v>0.022051595604518727</v>
+        <v>0.058339078579637646</v>
       </c>
       <c r="M112">
-        <v>0.11399889917832028</v>
+        <v>0.11230919164307354</v>
       </c>
       <c r="N112">
-        <v>0.086306457214134963</v>
+        <v>0.089765418833019223</v>
       </c>
       <c r="O112">
-        <v>0.010764484661428649</v>
+        <v>0.0076745650692084891</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -6284,46 +6287,46 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.2276287980331331e-14</v>
+        <v>0.094366641330308351</v>
       </c>
       <c r="C113">
-        <v>0.0089597701937735828</v>
+        <v>0.02221932723834031</v>
       </c>
       <c r="D113">
-        <v>0.034790985434344925</v>
+        <v>0.041893771195525585</v>
       </c>
       <c r="E113">
-        <v>0.088401891310992006</v>
+        <v>0.097662760538874169</v>
       </c>
       <c r="F113">
-        <v>0.037985478411597162</v>
+        <v>0.046642115240981268</v>
       </c>
       <c r="G113">
-        <v>0.18458185773674632</v>
+        <v>0.19791183176280375</v>
       </c>
       <c r="H113">
-        <v>0.0050755059849466738</v>
+        <v>0.016136065990853536</v>
       </c>
       <c r="I113">
-        <v>0.1029662475776985</v>
+        <v>0.094031088834221607</v>
       </c>
       <c r="J113">
-        <v>0.10165878061907051</v>
+        <v>0.11061668329887633</v>
       </c>
       <c r="K113">
-        <v>0.019741327245535525</v>
+        <v>0.04539827791081253</v>
       </c>
       <c r="L113">
-        <v>0.018375994653450356</v>
+        <v>0.022051595604518727</v>
       </c>
       <c r="M113">
-        <v>0.10448579663409839</v>
+        <v>0.11399889917832028</v>
       </c>
       <c r="N113">
-        <v>0.076339367331678315</v>
+        <v>0.086306457214134963</v>
       </c>
       <c r="O113">
-        <v>0.21663699686604551</v>
+        <v>0.010764484661428649</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -6334,49 +6337,49 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2.2804667850420196e-14</v>
+        <v>2.2276287980331331e-14</v>
       </c>
       <c r="C114">
-        <v>0.0048572264125655148</v>
+        <v>0.0089597701937735828</v>
       </c>
       <c r="D114">
-        <v>0.013897436244567836</v>
+        <v>0.034790985434344925</v>
       </c>
       <c r="E114">
-        <v>0.054344519127512987</v>
+        <v>0.088401891310992006</v>
       </c>
       <c r="F114">
-        <v>0.021747151599583747</v>
+        <v>0.037985478411597162</v>
       </c>
       <c r="G114">
-        <v>0.11643632446440998</v>
+        <v>0.18458185773674632</v>
       </c>
       <c r="H114">
-        <v>0.0026205500115491654</v>
+        <v>0.0050755059849466738</v>
       </c>
       <c r="I114">
-        <v>0.063297090816643115</v>
+        <v>0.1029662475776985</v>
       </c>
       <c r="J114">
-        <v>0.062898927209120867</v>
+        <v>0.10165878061907051</v>
       </c>
       <c r="K114">
-        <v>0.017009286692731652</v>
+        <v>0.019741327245535525</v>
       </c>
       <c r="L114">
-        <v>0.024445731553606641</v>
+        <v>0.018375994653450356</v>
       </c>
       <c r="M114">
-        <v>0.065480777304298604</v>
+        <v>0.10448579663409839</v>
       </c>
       <c r="N114">
-        <v>0.051052800122284879</v>
+        <v>0.076339367331678315</v>
       </c>
       <c r="O114">
-        <v>0.50191217844110214</v>
+        <v>0.21663699686604551</v>
       </c>
       <c r="P114">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -6384,49 +6387,49 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.2211282946488561e-14</v>
+        <v>2.2804667850420196e-14</v>
       </c>
       <c r="C115">
-        <v>0.0072288894594275321</v>
+        <v>0.0048572264125655148</v>
       </c>
       <c r="D115">
-        <v>0.19690917584746753</v>
+        <v>0.013897436244567836</v>
       </c>
       <c r="E115">
-        <v>0.092672511084412948</v>
+        <v>0.054344519127512987</v>
       </c>
       <c r="F115">
-        <v>0.048162321841695326</v>
+        <v>0.021747151599583747</v>
       </c>
       <c r="G115">
-        <v>0.19377502722086939</v>
+        <v>0.11643632446440998</v>
       </c>
       <c r="H115">
-        <v>0.0096379133759470475</v>
+        <v>0.0026205500115491654</v>
       </c>
       <c r="I115">
-        <v>0.10656383766895713</v>
+        <v>0.063297090816643115</v>
       </c>
       <c r="J115">
-        <v>0.10635294936020744</v>
+        <v>0.062898927209120867</v>
       </c>
       <c r="K115">
-        <v>0.03117054285984544</v>
+        <v>0.017009286692731652</v>
       </c>
       <c r="L115">
-        <v>0.017293710121759589</v>
+        <v>0.024445731553606641</v>
       </c>
       <c r="M115">
-        <v>0.10214345423825229</v>
+        <v>0.065480777304298604</v>
       </c>
       <c r="N115">
-        <v>0.085777666267304417</v>
+        <v>0.051052800122284879</v>
       </c>
       <c r="O115">
-        <v>0.0023120006538316223</v>
+        <v>0.50191217844110214</v>
       </c>
       <c r="P115">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -6434,46 +6437,46 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2.2315556504942269e-14</v>
+        <v>2.2211282946488561e-14</v>
       </c>
       <c r="C116">
-        <v>0.0036912899098802401</v>
+        <v>0.0072288894594275321</v>
       </c>
       <c r="D116">
-        <v>0.091606528894234915</v>
+        <v>0.19690917584746753</v>
       </c>
       <c r="E116">
-        <v>0.093848028060723065</v>
+        <v>0.092672511084412948</v>
       </c>
       <c r="F116">
-        <v>0.038224308345557137</v>
+        <v>0.048162321841695326</v>
       </c>
       <c r="G116">
-        <v>0.19652959313762955</v>
+        <v>0.19377502722086939</v>
       </c>
       <c r="H116">
-        <v>0.0068935241094303309</v>
+        <v>0.0096379133759470475</v>
       </c>
       <c r="I116">
-        <v>0.10426737706508066</v>
+        <v>0.10656383766895713</v>
       </c>
       <c r="J116">
-        <v>0.10812174741181597</v>
+        <v>0.10635294936020744</v>
       </c>
       <c r="K116">
-        <v>0.019780685561253567</v>
+        <v>0.03117054285984544</v>
       </c>
       <c r="L116">
-        <v>0.02546741393472033</v>
+        <v>0.017293710121759589</v>
       </c>
       <c r="M116">
-        <v>0.10944170498429732</v>
+        <v>0.10214345423825229</v>
       </c>
       <c r="N116">
-        <v>0.083232656334461988</v>
+        <v>0.085777666267304417</v>
       </c>
       <c r="O116">
-        <v>0.11889514225089279</v>
+        <v>0.0023120006538316223</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -6484,46 +6487,46 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.08217037514187428</v>
+        <v>2.2315556504942269e-14</v>
       </c>
       <c r="C117">
-        <v>0.016327351145486946</v>
+        <v>0.0036912899098802401</v>
       </c>
       <c r="D117">
-        <v>0.0094018309793357374</v>
+        <v>0.091606528894234915</v>
       </c>
       <c r="E117">
-        <v>0.096910837964202093</v>
+        <v>0.093848028060723065</v>
       </c>
       <c r="F117">
-        <v>0.047187478707893922</v>
+        <v>0.038224308345557137</v>
       </c>
       <c r="G117">
-        <v>0.19596909048260849</v>
+        <v>0.19652959313762955</v>
       </c>
       <c r="H117">
-        <v>0.01208149023385189</v>
+        <v>0.0068935241094303309</v>
       </c>
       <c r="I117">
-        <v>0.090499983283553673</v>
+        <v>0.10426737706508066</v>
       </c>
       <c r="J117">
-        <v>0.10403070912966722</v>
+        <v>0.10812174741181597</v>
       </c>
       <c r="K117">
-        <v>0.037437878064022684</v>
+        <v>0.019780685561253567</v>
       </c>
       <c r="L117">
-        <v>0.039158619402389933</v>
+        <v>0.02546741393472033</v>
       </c>
       <c r="M117">
-        <v>0.11355220375324487</v>
+        <v>0.10944170498429732</v>
       </c>
       <c r="N117">
-        <v>0.095488946630533381</v>
+        <v>0.083232656334461988</v>
       </c>
       <c r="O117">
-        <v>0.059783205081334834</v>
+        <v>0.11889514225089279</v>
       </c>
       <c r="P117">
         <v>1</v>
@@ -6534,46 +6537,46 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.2292378348921547e-14</v>
+        <v>0.08217037514187428</v>
       </c>
       <c r="C118">
-        <v>0.0084797918031440829</v>
+        <v>0.016327351145486946</v>
       </c>
       <c r="D118">
-        <v>0.0084243461789256999</v>
+        <v>0.0094018309793357374</v>
       </c>
       <c r="E118">
-        <v>0.087797831732877821</v>
+        <v>0.096910837964202093</v>
       </c>
       <c r="F118">
-        <v>0.039608253467877309</v>
+        <v>0.047187478707893922</v>
       </c>
       <c r="G118">
-        <v>0.18379038787048088</v>
+        <v>0.19596909048260849</v>
       </c>
       <c r="H118">
-        <v>0.011504333303954832</v>
+        <v>0.01208149023385189</v>
       </c>
       <c r="I118">
-        <v>0.080400201330781393</v>
+        <v>0.090499983283553673</v>
       </c>
       <c r="J118">
-        <v>0.09351131350192339</v>
+        <v>0.10403070912966722</v>
       </c>
       <c r="K118">
-        <v>0.041810153874559164</v>
+        <v>0.037437878064022684</v>
       </c>
       <c r="L118">
-        <v>0.034238612243803486</v>
+        <v>0.039158619402389933</v>
       </c>
       <c r="M118">
-        <v>0.10303145057559866</v>
+        <v>0.11355220375324487</v>
       </c>
       <c r="N118">
-        <v>0.089472481437314663</v>
+        <v>0.095488946630533381</v>
       </c>
       <c r="O118">
-        <v>0.21793084267873628</v>
+        <v>0.059783205081334834</v>
       </c>
       <c r="P118">
         <v>1</v>
@@ -6584,46 +6587,46 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.068657884895294632</v>
+        <v>2.2292378348921547e-14</v>
       </c>
       <c r="C119">
-        <v>0.045546755953167484</v>
+        <v>0.0084797918031440829</v>
       </c>
       <c r="D119">
-        <v>0.029187997013127642</v>
+        <v>0.0084243461789256999</v>
       </c>
       <c r="E119">
-        <v>0.095182340601411689</v>
+        <v>0.087797831732877821</v>
       </c>
       <c r="F119">
-        <v>0.043373253179615268</v>
+        <v>0.039608253467877309</v>
       </c>
       <c r="G119">
-        <v>0.19170190322142797</v>
+        <v>0.18379038787048088</v>
       </c>
       <c r="H119">
-        <v>0.008628286462180489</v>
+        <v>0.011504333303954832</v>
       </c>
       <c r="I119">
-        <v>0.094407395760037788</v>
+        <v>0.080400201330781393</v>
       </c>
       <c r="J119">
-        <v>0.10606675583713944</v>
+        <v>0.09351131350192339</v>
       </c>
       <c r="K119">
-        <v>0.05752131416628313</v>
+        <v>0.041810153874559164</v>
       </c>
       <c r="L119">
-        <v>0.032875554744369963</v>
+        <v>0.034238612243803486</v>
       </c>
       <c r="M119">
-        <v>0.11093298800920939</v>
+        <v>0.10303145057559866</v>
       </c>
       <c r="N119">
-        <v>0.092076814190344525</v>
+        <v>0.089472481437314663</v>
       </c>
       <c r="O119">
-        <v>0.023840755966390511</v>
+        <v>0.21793084267873628</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -6634,46 +6637,46 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.055456968824648921</v>
+        <v>0.068657884895294632</v>
       </c>
       <c r="C120">
-        <v>0.014997059846657997</v>
+        <v>0.045546755953167484</v>
       </c>
       <c r="D120">
-        <v>0.047279458735490228</v>
+        <v>0.029187997013127642</v>
       </c>
       <c r="E120">
-        <v>0.093584515932521414</v>
+        <v>0.095182340601411689</v>
       </c>
       <c r="F120">
-        <v>0.03724766104713826</v>
+        <v>0.043373253179615268</v>
       </c>
       <c r="G120">
-        <v>0.19131344631743155</v>
+        <v>0.19170190322142797</v>
       </c>
       <c r="H120">
-        <v>0.0072553184046139467</v>
+        <v>0.008628286462180489</v>
       </c>
       <c r="I120">
-        <v>0.10778106361445516</v>
+        <v>0.094407395760037788</v>
       </c>
       <c r="J120">
-        <v>0.10037570368020876</v>
+        <v>0.10606675583713944</v>
       </c>
       <c r="K120">
-        <v>0.033049067102462477</v>
+        <v>0.05752131416628313</v>
       </c>
       <c r="L120">
-        <v>0.035378877812894644</v>
+        <v>0.032875554744369963</v>
       </c>
       <c r="M120">
-        <v>0.11081078699252371</v>
+        <v>0.11093298800920939</v>
       </c>
       <c r="N120">
-        <v>0.10353148931930975</v>
+        <v>0.092076814190344525</v>
       </c>
       <c r="O120">
-        <v>0.061938582369643148</v>
+        <v>0.023840755966390511</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -6684,46 +6687,46 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.056791460374884938</v>
+        <v>0.055456968824648921</v>
       </c>
       <c r="C121">
-        <v>0.01772692962248041</v>
+        <v>0.014997059846657997</v>
       </c>
       <c r="D121">
-        <v>0.052987029026110105</v>
+        <v>0.047279458735490228</v>
       </c>
       <c r="E121">
-        <v>0.093826837184970258</v>
+        <v>0.093584515932521414</v>
       </c>
       <c r="F121">
-        <v>0.043186035499777925</v>
+        <v>0.03724766104713826</v>
       </c>
       <c r="G121">
-        <v>0.19035488732376907</v>
+        <v>0.19131344631743155</v>
       </c>
       <c r="H121">
-        <v>0.0072833368440972102</v>
+        <v>0.0072553184046139467</v>
       </c>
       <c r="I121">
-        <v>0.087189908283008405</v>
+        <v>0.10778106361445516</v>
       </c>
       <c r="J121">
-        <v>0.10681207907947979</v>
+        <v>0.10037570368020876</v>
       </c>
       <c r="K121">
-        <v>0.072118447660217522</v>
+        <v>0.033049067102462477</v>
       </c>
       <c r="L121">
-        <v>0.034801181018647868</v>
+        <v>0.035378877812894644</v>
       </c>
       <c r="M121">
-        <v>0.10660549921308418</v>
+        <v>0.11081078699252371</v>
       </c>
       <c r="N121">
-        <v>0.11661688399061569</v>
+        <v>0.10353148931930975</v>
       </c>
       <c r="O121">
-        <v>0.01369948487885668</v>
+        <v>0.061938582369643148</v>
       </c>
       <c r="P121">
         <v>1</v>
@@ -6734,46 +6737,46 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.2229832339403693e-14</v>
+        <v>0.056791460374884938</v>
       </c>
       <c r="C122">
-        <v>0.0072047838285607332</v>
+        <v>0.01772692962248041</v>
       </c>
       <c r="D122">
-        <v>0.089704788056812895</v>
+        <v>0.052987029026110105</v>
       </c>
       <c r="E122">
-        <v>0.091563472736114954</v>
+        <v>0.093826837184970258</v>
       </c>
       <c r="F122">
-        <v>0.037114089471187738</v>
+        <v>0.043186035499777925</v>
       </c>
       <c r="G122">
-        <v>0.19127922953171686</v>
+        <v>0.19035488732376907</v>
       </c>
       <c r="H122">
-        <v>0.0038004872558894389</v>
+        <v>0.0072833368440972102</v>
       </c>
       <c r="I122">
-        <v>0.10244911686462199</v>
+        <v>0.087189908283008405</v>
       </c>
       <c r="J122">
-        <v>0.10359327421923323</v>
+        <v>0.10681207907947979</v>
       </c>
       <c r="K122">
-        <v>0.030991931463958958</v>
+        <v>0.072118447660217522</v>
       </c>
       <c r="L122">
-        <v>0.026142118714814103</v>
+        <v>0.034801181018647868</v>
       </c>
       <c r="M122">
-        <v>0.10499392859303591</v>
+        <v>0.10660549921308418</v>
       </c>
       <c r="N122">
-        <v>0.077359019914317081</v>
+        <v>0.11661688399061569</v>
       </c>
       <c r="O122">
-        <v>0.13380375934971389</v>
+        <v>0.01369948487885668</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -6784,46 +6787,46 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.068964951738972019</v>
+        <v>2.2229832339403693e-14</v>
       </c>
       <c r="C123">
-        <v>0.0068846220519049013</v>
+        <v>0.0072047838285607332</v>
       </c>
       <c r="D123">
-        <v>0.072578252988359335</v>
+        <v>0.089704788056812895</v>
       </c>
       <c r="E123">
-        <v>0.095228999396554728</v>
+        <v>0.091563472736114954</v>
       </c>
       <c r="F123">
-        <v>0.041251509189422525</v>
+        <v>0.037114089471187738</v>
       </c>
       <c r="G123">
-        <v>0.19775808600478667</v>
+        <v>0.19127922953171686</v>
       </c>
       <c r="H123">
-        <v>0.030793817304490816</v>
+        <v>0.0038004872558894389</v>
       </c>
       <c r="I123">
-        <v>0.098775297751999516</v>
+        <v>0.10244911686462199</v>
       </c>
       <c r="J123">
-        <v>0.10111343259593537</v>
+        <v>0.10359327421923323</v>
       </c>
       <c r="K123">
-        <v>0.040076815175842141</v>
+        <v>0.030991931463958958</v>
       </c>
       <c r="L123">
-        <v>0.029882078348857193</v>
+        <v>0.026142118714814103</v>
       </c>
       <c r="M123">
-        <v>0.11048954980358097</v>
+        <v>0.10499392859303591</v>
       </c>
       <c r="N123">
-        <v>0.082217013715364481</v>
+        <v>0.077359019914317081</v>
       </c>
       <c r="O123">
-        <v>0.023985573933929225</v>
+        <v>0.13380375934971389</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -6834,46 +6837,46 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.094463325608556664</v>
+        <v>0.068964951738972019</v>
       </c>
       <c r="C124">
-        <v>0.013682342527204308</v>
+        <v>0.0068846220519049013</v>
       </c>
       <c r="D124">
-        <v>0.013649772009007216</v>
+        <v>0.072578252988359335</v>
       </c>
       <c r="E124">
-        <v>0.098105902477977833</v>
+        <v>0.095228999396554728</v>
       </c>
       <c r="F124">
-        <v>0.04600192357646448</v>
+        <v>0.041251509189422525</v>
       </c>
       <c r="G124">
-        <v>0.20221247783298579</v>
+        <v>0.19775808600478667</v>
       </c>
       <c r="H124">
-        <v>0.019607662726107752</v>
+        <v>0.030793817304490816</v>
       </c>
       <c r="I124">
-        <v>0.097688390159363064</v>
+        <v>0.098775297751999516</v>
       </c>
       <c r="J124">
-        <v>0.10343165598294153</v>
+        <v>0.10111343259593537</v>
       </c>
       <c r="K124">
-        <v>0.032280234275246567</v>
+        <v>0.040076815175842141</v>
       </c>
       <c r="L124">
-        <v>0.027928219385276967</v>
+        <v>0.029882078348857193</v>
       </c>
       <c r="M124">
-        <v>0.11258096923069028</v>
+        <v>0.11048954980358097</v>
       </c>
       <c r="N124">
-        <v>0.10479790422471352</v>
+        <v>0.082217013715364481</v>
       </c>
       <c r="O124">
-        <v>0.033569219983464051</v>
+        <v>0.023985573933929225</v>
       </c>
       <c r="P124">
         <v>1</v>
@@ -6884,46 +6887,46 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.087849462656940394</v>
+        <v>0.094463325608556664</v>
       </c>
       <c r="C125">
-        <v>0.011010257958966572</v>
+        <v>0.013682342527204308</v>
       </c>
       <c r="D125">
-        <v>0.019806053214656599</v>
+        <v>0.013649772009007216</v>
       </c>
       <c r="E125">
-        <v>0.097378750557689672</v>
+        <v>0.098105902477977833</v>
       </c>
       <c r="F125">
-        <v>0.044232789292018279</v>
+        <v>0.04600192357646448</v>
       </c>
       <c r="G125">
-        <v>0.19775455945803322</v>
+        <v>0.20221247783298579</v>
       </c>
       <c r="H125">
-        <v>0.015266290144241941</v>
+        <v>0.019607662726107752</v>
       </c>
       <c r="I125">
-        <v>0.10348159981457819</v>
+        <v>0.097688390159363064</v>
       </c>
       <c r="J125">
-        <v>0.10778398106001483</v>
+        <v>0.10343165598294153</v>
       </c>
       <c r="K125">
-        <v>0.051559159084395852</v>
+        <v>0.032280234275246567</v>
       </c>
       <c r="L125">
-        <v>0.035622818977631796</v>
+        <v>0.027928219385276967</v>
       </c>
       <c r="M125">
-        <v>0.11490683789140684</v>
+        <v>0.11258096923069028</v>
       </c>
       <c r="N125">
-        <v>0.10424576435889474</v>
+        <v>0.10479790422471352</v>
       </c>
       <c r="O125">
-        <v>0.0091016755305311052</v>
+        <v>0.033569219983464051</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -6934,46 +6937,46 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.2302481574539535e-14</v>
+        <v>0.087849462656940394</v>
       </c>
       <c r="C126">
-        <v>0.0068540021835480826</v>
+        <v>0.011010257958966572</v>
       </c>
       <c r="D126">
-        <v>0.087965787762276287</v>
+        <v>0.019806053214656599</v>
       </c>
       <c r="E126">
-        <v>0.086922590703523858</v>
+        <v>0.097378750557689672</v>
       </c>
       <c r="F126">
-        <v>0.036369969024288663</v>
+        <v>0.044232789292018279</v>
       </c>
       <c r="G126">
-        <v>0.1820332175629546</v>
+        <v>0.19775455945803322</v>
       </c>
       <c r="H126">
-        <v>0.0070528436576979964</v>
+        <v>0.015266290144241941</v>
       </c>
       <c r="I126">
-        <v>0.097414179037981247</v>
+        <v>0.10348159981457819</v>
       </c>
       <c r="J126">
-        <v>0.090792920585720222</v>
+        <v>0.10778398106001483</v>
       </c>
       <c r="K126">
-        <v>0.018692852084745866</v>
+        <v>0.051559159084395852</v>
       </c>
       <c r="L126">
-        <v>0.023206558909138759</v>
+        <v>0.035622818977631796</v>
       </c>
       <c r="M126">
-        <v>0.10111727272078819</v>
+        <v>0.11490683789140684</v>
       </c>
       <c r="N126">
-        <v>0.081778970718424104</v>
+        <v>0.10424576435889474</v>
       </c>
       <c r="O126">
-        <v>0.17979883504888983</v>
+        <v>0.0091016755305311052</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -6984,46 +6987,46 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.2239434820286201e-14</v>
+        <v>2.2302481574539535e-14</v>
       </c>
       <c r="C127">
-        <v>0.015478329026616375</v>
+        <v>0.0068540021835480826</v>
       </c>
       <c r="D127">
-        <v>0.11390553830833573</v>
+        <v>0.087965787762276287</v>
       </c>
       <c r="E127">
-        <v>0.091165721638006653</v>
+        <v>0.086922590703523858</v>
       </c>
       <c r="F127">
-        <v>0.033598626778722239</v>
+        <v>0.036369969024288663</v>
       </c>
       <c r="G127">
-        <v>0.19283875198153988</v>
+        <v>0.1820332175629546</v>
       </c>
       <c r="H127">
-        <v>0.0045578510075545723</v>
+        <v>0.0070528436576979964</v>
       </c>
       <c r="I127">
-        <v>0.10265285889467354</v>
+        <v>0.097414179037981247</v>
       </c>
       <c r="J127">
-        <v>0.089367052211425282</v>
+        <v>0.090792920585720222</v>
       </c>
       <c r="K127">
-        <v>0.031950557482499801</v>
+        <v>0.018692852084745866</v>
       </c>
       <c r="L127">
-        <v>0.022974511145675097</v>
+        <v>0.023206558909138759</v>
       </c>
       <c r="M127">
-        <v>0.10566350629816441</v>
+        <v>0.10111727272078819</v>
       </c>
       <c r="N127">
-        <v>0.085194314926772013</v>
+        <v>0.081778970718424104</v>
       </c>
       <c r="O127">
-        <v>0.11065238029999218</v>
+        <v>0.17979883504888983</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -7034,46 +7037,46 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2.2323299702518188e-14</v>
+        <v>2.2239434820286201e-14</v>
       </c>
       <c r="C128">
-        <v>0.0037564743416676452</v>
+        <v>0.015478329026616375</v>
       </c>
       <c r="D128">
-        <v>0.22736151336553162</v>
+        <v>0.11390553830833573</v>
       </c>
       <c r="E128">
-        <v>0.085849319164083934</v>
+        <v>0.091165721638006653</v>
       </c>
       <c r="F128">
-        <v>0.039733942190857859</v>
+        <v>0.033598626778722239</v>
       </c>
       <c r="G128">
-        <v>0.17999092364549682</v>
+        <v>0.19283875198153988</v>
       </c>
       <c r="H128">
-        <v>0.019658641483499335</v>
+        <v>0.0045578510075545723</v>
       </c>
       <c r="I128">
-        <v>0.10387540885182089</v>
+        <v>0.10265285889467354</v>
       </c>
       <c r="J128">
-        <v>0.091618800415375914</v>
+        <v>0.089367052211425282</v>
       </c>
       <c r="K128">
-        <v>0.044148043202009844</v>
+        <v>0.031950557482499801</v>
       </c>
       <c r="L128">
-        <v>0.013867105556637661</v>
+        <v>0.022974511145675097</v>
       </c>
       <c r="M128">
-        <v>0.10247943205557199</v>
+        <v>0.10566350629816441</v>
       </c>
       <c r="N128">
-        <v>0.08749787314435542</v>
+        <v>0.085194314926772013</v>
       </c>
       <c r="O128">
-        <v>0.00016252258306877296</v>
+        <v>0.11065238029999218</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -7084,46 +7087,46 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.072660108635893769</v>
+        <v>2.2323299702518188e-14</v>
       </c>
       <c r="C129">
-        <v>0.02409288210196053</v>
+        <v>0.0037564743416676452</v>
       </c>
       <c r="D129">
-        <v>0.013808412694880784</v>
+        <v>0.22736151336553162</v>
       </c>
       <c r="E129">
-        <v>0.095897889117138535</v>
+        <v>0.085849319164083934</v>
       </c>
       <c r="F129">
-        <v>0.042914648591062171</v>
+        <v>0.039733942190857859</v>
       </c>
       <c r="G129">
-        <v>0.19533919163744654</v>
+        <v>0.17999092364549682</v>
       </c>
       <c r="H129">
-        <v>0.011197499777732064</v>
+        <v>0.019658641483499335</v>
       </c>
       <c r="I129">
-        <v>0.095585681970219188</v>
+        <v>0.10387540885182089</v>
       </c>
       <c r="J129">
-        <v>0.10392842647547634</v>
+        <v>0.091618800415375914</v>
       </c>
       <c r="K129">
-        <v>0.065988130092926575</v>
+        <v>0.044148043202009844</v>
       </c>
       <c r="L129">
-        <v>0.055325518203498333</v>
+        <v>0.013867105556637661</v>
       </c>
       <c r="M129">
-        <v>0.11245782667127972</v>
+        <v>0.10247943205557199</v>
       </c>
       <c r="N129">
-        <v>0.098019855501918191</v>
+        <v>0.08749787314435542</v>
       </c>
       <c r="O129">
-        <v>0.012783928528567263</v>
+        <v>0.00016252258306877296</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -7134,46 +7137,46 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.089730695051090326</v>
+        <v>0.072660108635893769</v>
       </c>
       <c r="C130">
-        <v>0.024007155207657466</v>
+        <v>0.02409288210196053</v>
       </c>
       <c r="D130">
-        <v>0.015310662922623506</v>
+        <v>0.013808412694880784</v>
       </c>
       <c r="E130">
-        <v>0.097636797694547389</v>
+        <v>0.095897889117138535</v>
       </c>
       <c r="F130">
-        <v>0.044259122946358524</v>
+        <v>0.042914648591062171</v>
       </c>
       <c r="G130">
-        <v>0.20031341816544454</v>
+        <v>0.19533919163744654</v>
       </c>
       <c r="H130">
-        <v>0.013940967818106062</v>
+        <v>0.011197499777732064</v>
       </c>
       <c r="I130">
-        <v>0.091579877338779439</v>
+        <v>0.095585681970219188</v>
       </c>
       <c r="J130">
-        <v>0.11279889221091673</v>
+        <v>0.10392842647547634</v>
       </c>
       <c r="K130">
-        <v>0.054713275704447874</v>
+        <v>0.065988130092926575</v>
       </c>
       <c r="L130">
-        <v>0.032886440993298835</v>
+        <v>0.055325518203498333</v>
       </c>
       <c r="M130">
-        <v>0.1062802487016431</v>
+        <v>0.11245782667127972</v>
       </c>
       <c r="N130">
-        <v>0.093943934147682054</v>
+        <v>0.098019855501918191</v>
       </c>
       <c r="O130">
-        <v>0.022598511097404177</v>
+        <v>0.012783928528567263</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -7184,46 +7187,46 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.08682543750679822</v>
+        <v>0.089730695051090326</v>
       </c>
       <c r="C131">
-        <v>0.018323874100764519</v>
+        <v>0.024007155207657466</v>
       </c>
       <c r="D131">
-        <v>0.047409056184140701</v>
+        <v>0.015310662922623506</v>
       </c>
       <c r="E131">
-        <v>0.097117028624345889</v>
+        <v>0.097636797694547389</v>
       </c>
       <c r="F131">
-        <v>0.046367445424146642</v>
+        <v>0.044259122946358524</v>
       </c>
       <c r="G131">
-        <v>0.19475296034588138</v>
+        <v>0.20031341816544454</v>
       </c>
       <c r="H131">
-        <v>0.024066006726992738</v>
+        <v>0.013940967818106062</v>
       </c>
       <c r="I131">
-        <v>0.10333229692799664</v>
+        <v>0.091579877338779439</v>
       </c>
       <c r="J131">
-        <v>0.10313531698942578</v>
+        <v>0.11279889221091673</v>
       </c>
       <c r="K131">
-        <v>0.040884075266121124</v>
+        <v>0.054713275704447874</v>
       </c>
       <c r="L131">
-        <v>0.018114743756608383</v>
+        <v>0.032886440993298835</v>
       </c>
       <c r="M131">
-        <v>0.11248576031393846</v>
+        <v>0.1062802487016431</v>
       </c>
       <c r="N131">
-        <v>0.089813780653013681</v>
+        <v>0.093943934147682054</v>
       </c>
       <c r="O131">
-        <v>0.017372217179825861</v>
+        <v>0.022598511097404177</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -7234,46 +7237,46 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.058184963907898644</v>
+        <v>0.08682543750679822</v>
       </c>
       <c r="C132">
-        <v>0.024864833217856437</v>
+        <v>0.018323874100764519</v>
       </c>
       <c r="D132">
-        <v>0.095573266740211993</v>
+        <v>0.047409056184140701</v>
       </c>
       <c r="E132">
-        <v>0.093929370426192232</v>
+        <v>0.097117028624345889</v>
       </c>
       <c r="F132">
-        <v>0.041494337401669468</v>
+        <v>0.046367445424146642</v>
       </c>
       <c r="G132">
-        <v>0.18760527998720949</v>
+        <v>0.19475296034588138</v>
       </c>
       <c r="H132">
-        <v>0.0084573420191926818</v>
+        <v>0.024066006726992738</v>
       </c>
       <c r="I132">
-        <v>0.098840154930116664</v>
+        <v>0.10333229692799664</v>
       </c>
       <c r="J132">
-        <v>0.10199649703612462</v>
+        <v>0.10313531698942578</v>
       </c>
       <c r="K132">
-        <v>0.040600841307589113</v>
+        <v>0.040884075266121124</v>
       </c>
       <c r="L132">
-        <v>0.031376838794203582</v>
+        <v>0.018114743756608383</v>
       </c>
       <c r="M132">
-        <v>0.10998053725809054</v>
+        <v>0.11248576031393846</v>
       </c>
       <c r="N132">
-        <v>0.096135780279618402</v>
+        <v>0.089813780653013681</v>
       </c>
       <c r="O132">
-        <v>0.01095995669402587</v>
+        <v>0.017372217179825861</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -7284,46 +7287,46 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.067055394842578414</v>
+        <v>0.058184963907898644</v>
       </c>
       <c r="C133">
-        <v>0.051046831172527132</v>
+        <v>0.024864833217856437</v>
       </c>
       <c r="D133">
-        <v>0.056847928163395581</v>
+        <v>0.095573266740211993</v>
       </c>
       <c r="E133">
-        <v>0.094706273294404869</v>
+        <v>0.093929370426192232</v>
       </c>
       <c r="F133">
-        <v>0.045184877815111636</v>
+        <v>0.041494337401669468</v>
       </c>
       <c r="G133">
-        <v>0.19300253457024108</v>
+        <v>0.18760527998720949</v>
       </c>
       <c r="H133">
-        <v>0.0077837488065927883</v>
+        <v>0.0084573420191926818</v>
       </c>
       <c r="I133">
-        <v>0.090407793653748236</v>
+        <v>0.098840154930116664</v>
       </c>
       <c r="J133">
-        <v>0.094425434311492917</v>
+        <v>0.10199649703612462</v>
       </c>
       <c r="K133">
-        <v>0.052193740680707847</v>
+        <v>0.040600841307589113</v>
       </c>
       <c r="L133">
-        <v>0.030775746882146977</v>
+        <v>0.031376838794203582</v>
       </c>
       <c r="M133">
-        <v>0.10954741772723828</v>
+        <v>0.10998053725809054</v>
       </c>
       <c r="N133">
-        <v>0.093966361626781528</v>
+        <v>0.096135780279618402</v>
       </c>
       <c r="O133">
-        <v>0.013055916453032699</v>
+        <v>0.01095995669402587</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -7334,46 +7337,46 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.086760457119083034</v>
+        <v>0.067055394842578414</v>
       </c>
       <c r="C134">
-        <v>0.023680117428616781</v>
+        <v>0.051046831172527132</v>
       </c>
       <c r="D134">
-        <v>0.024167928808469005</v>
+        <v>0.056847928163395581</v>
       </c>
       <c r="E134">
-        <v>0.09690447447581492</v>
+        <v>0.094706273294404869</v>
       </c>
       <c r="F134">
-        <v>0.043143185070683501</v>
+        <v>0.045184877815111636</v>
       </c>
       <c r="G134">
-        <v>0.19173509195152272</v>
+        <v>0.19300253457024108</v>
       </c>
       <c r="H134">
-        <v>0.016402139736820885</v>
+        <v>0.0077837488065927883</v>
       </c>
       <c r="I134">
-        <v>0.10517798533815825</v>
+        <v>0.090407793653748236</v>
       </c>
       <c r="J134">
-        <v>0.10262886433466711</v>
+        <v>0.094425434311492917</v>
       </c>
       <c r="K134">
-        <v>0.051886655478435614</v>
+        <v>0.052193740680707847</v>
       </c>
       <c r="L134">
-        <v>0.02654770699239517</v>
+        <v>0.030775746882146977</v>
       </c>
       <c r="M134">
-        <v>0.11286747349644477</v>
+        <v>0.10954741772723828</v>
       </c>
       <c r="N134">
-        <v>0.093744961892079162</v>
+        <v>0.093966361626781528</v>
       </c>
       <c r="O134">
-        <v>0.024352957876809141</v>
+        <v>0.013055916453032699</v>
       </c>
       <c r="P134">
         <v>1</v>
@@ -7384,46 +7387,46 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.067055394842578414</v>
+        <v>0.086760457119083034</v>
       </c>
       <c r="C135">
-        <v>0.051046831172527132</v>
+        <v>0.023680117428616781</v>
       </c>
       <c r="D135">
-        <v>0.056847928163395581</v>
+        <v>0.024167928808469005</v>
       </c>
       <c r="E135">
-        <v>0.094706273294404869</v>
+        <v>0.09690447447581492</v>
       </c>
       <c r="F135">
-        <v>0.045184877815111636</v>
+        <v>0.043143185070683501</v>
       </c>
       <c r="G135">
-        <v>0.19300253457024108</v>
+        <v>0.19173509195152272</v>
       </c>
       <c r="H135">
-        <v>0.0077837488065927883</v>
+        <v>0.016402139736820885</v>
       </c>
       <c r="I135">
-        <v>0.090407793653748236</v>
+        <v>0.10517798533815825</v>
       </c>
       <c r="J135">
-        <v>0.094425434311492917</v>
+        <v>0.10262886433466711</v>
       </c>
       <c r="K135">
-        <v>0.052193740680707847</v>
+        <v>0.051886655478435614</v>
       </c>
       <c r="L135">
-        <v>0.030775746882146977</v>
+        <v>0.02654770699239517</v>
       </c>
       <c r="M135">
-        <v>0.10954741772723828</v>
+        <v>0.11286747349644477</v>
       </c>
       <c r="N135">
-        <v>0.093966361626781528</v>
+        <v>0.093744961892079162</v>
       </c>
       <c r="O135">
-        <v>0.013055916453032699</v>
+        <v>0.024352957876809141</v>
       </c>
       <c r="P135">
         <v>1</v>
@@ -7434,46 +7437,46 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.054425846033442575</v>
+        <v>0.067055394842578414</v>
       </c>
       <c r="C136">
-        <v>0.043259955598332983</v>
+        <v>0.051046831172527132</v>
       </c>
       <c r="D136">
-        <v>0.078405033834083745</v>
+        <v>0.056847928163395581</v>
       </c>
       <c r="E136">
-        <v>0.093291487015472643</v>
+        <v>0.094706273294404869</v>
       </c>
       <c r="F136">
-        <v>0.044044491072065685</v>
+        <v>0.045184877815111636</v>
       </c>
       <c r="G136">
-        <v>0.18874154341140609</v>
+        <v>0.19300253457024108</v>
       </c>
       <c r="H136">
-        <v>0.0066111250425002687</v>
+        <v>0.0077837488065927883</v>
       </c>
       <c r="I136">
-        <v>0.094359932980149663</v>
+        <v>0.090407793653748236</v>
       </c>
       <c r="J136">
-        <v>0.098189884895428403</v>
+        <v>0.094425434311492917</v>
       </c>
       <c r="K136">
-        <v>0.05047168948955745</v>
+        <v>0.052193740680707847</v>
       </c>
       <c r="L136">
-        <v>0.020191971237505334</v>
+        <v>0.030775746882146977</v>
       </c>
       <c r="M136">
-        <v>0.1066759684261884</v>
+        <v>0.10954741772723828</v>
       </c>
       <c r="N136">
-        <v>0.11039031369610691</v>
+        <v>0.093966361626781528</v>
       </c>
       <c r="O136">
-        <v>0.010940757267759973</v>
+        <v>0.013055916453032699</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -7484,49 +7487,49 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.2664707957359638e-14</v>
+        <v>0.054425846033442575</v>
       </c>
       <c r="C137">
-        <v>0.010120170471145282</v>
+        <v>0.043259955598332983</v>
       </c>
       <c r="D137">
-        <v>0.0033288561912398163</v>
+        <v>0.078405033834083745</v>
       </c>
       <c r="E137">
-        <v>0.064125891055603859</v>
+        <v>0.093291487015472643</v>
       </c>
       <c r="F137">
-        <v>0.025293855018264207</v>
+        <v>0.044044491072065685</v>
       </c>
       <c r="G137">
-        <v>0.13741203219527251</v>
+        <v>0.18874154341140609</v>
       </c>
       <c r="H137">
-        <v>0.0083245976750128056</v>
+        <v>0.0066111250425002687</v>
       </c>
       <c r="I137">
-        <v>0.065358731631841457</v>
+        <v>0.094359932980149663</v>
       </c>
       <c r="J137">
-        <v>0.06773776607633572</v>
+        <v>0.098189884895428403</v>
       </c>
       <c r="K137">
-        <v>0.025186262511947471</v>
+        <v>0.05047168948955745</v>
       </c>
       <c r="L137">
-        <v>0.016538717601841498</v>
+        <v>0.020191971237505334</v>
       </c>
       <c r="M137">
-        <v>0.07427663509251349</v>
+        <v>0.1066759684261884</v>
       </c>
       <c r="N137">
-        <v>0.060923560536066887</v>
+        <v>0.11039031369610691</v>
       </c>
       <c r="O137">
-        <v>0.44137292394289246</v>
+        <v>0.010940757267759973</v>
       </c>
       <c r="P137">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -7534,49 +7537,49 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.067464242580893077</v>
+        <v>2.2664707957359638e-14</v>
       </c>
       <c r="C138">
-        <v>0.029418894134822581</v>
+        <v>0.010120170471145282</v>
       </c>
       <c r="D138">
-        <v>0.058705805752765579</v>
+        <v>0.0033288561912398163</v>
       </c>
       <c r="E138">
-        <v>0.0956459241827151</v>
+        <v>0.064125891055603859</v>
       </c>
       <c r="F138">
-        <v>0.046411617215223466</v>
+        <v>0.025293855018264207</v>
       </c>
       <c r="G138">
-        <v>0.19551728952291794</v>
+        <v>0.13741203219527251</v>
       </c>
       <c r="H138">
-        <v>0.008234793392502748</v>
+        <v>0.0083245976750128056</v>
       </c>
       <c r="I138">
-        <v>0.095439880654262635</v>
+        <v>0.065358731631841457</v>
       </c>
       <c r="J138">
-        <v>0.096495803455636811</v>
+        <v>0.06773776607633572</v>
       </c>
       <c r="K138">
-        <v>0.051653711157509614</v>
+        <v>0.025186262511947471</v>
       </c>
       <c r="L138">
-        <v>0.028817190073210045</v>
+        <v>0.016538717601841498</v>
       </c>
       <c r="M138">
-        <v>0.11196800163548019</v>
+        <v>0.07427663509251349</v>
       </c>
       <c r="N138">
-        <v>0.10719017099886109</v>
+        <v>0.060923560536066887</v>
       </c>
       <c r="O138">
-        <v>0.0070366752431992143</v>
+        <v>0.44137292394289246</v>
       </c>
       <c r="P138">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -7584,46 +7587,46 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.075110964659290194</v>
+        <v>0.067464242580893077</v>
       </c>
       <c r="C139">
-        <v>0.044417798599669003</v>
+        <v>0.029418894134822581</v>
       </c>
       <c r="D139">
-        <v>0.017253816159746759</v>
+        <v>0.058705805752765579</v>
       </c>
       <c r="E139">
-        <v>0.095778933131575039</v>
+        <v>0.0956459241827151</v>
       </c>
       <c r="F139">
-        <v>0.040312022248488157</v>
+        <v>0.046411617215223466</v>
       </c>
       <c r="G139">
-        <v>0.19594109460327114</v>
+        <v>0.19551728952291794</v>
       </c>
       <c r="H139">
-        <v>0.0091394783764806881</v>
+        <v>0.008234793392502748</v>
       </c>
       <c r="I139">
-        <v>0.10137440759953976</v>
+        <v>0.095439880654262635</v>
       </c>
       <c r="J139">
-        <v>0.091895510325636726</v>
+        <v>0.096495803455636811</v>
       </c>
       <c r="K139">
-        <v>0.046385066677355126</v>
+        <v>0.051653711157509614</v>
       </c>
       <c r="L139">
-        <v>0.025426674462830069</v>
+        <v>0.028817190073210045</v>
       </c>
       <c r="M139">
-        <v>0.11077414730793687</v>
+        <v>0.11196800163548019</v>
       </c>
       <c r="N139">
-        <v>0.095434473666447209</v>
+        <v>0.10719017099886109</v>
       </c>
       <c r="O139">
-        <v>0.050755612181733287</v>
+        <v>0.0070366752431992143</v>
       </c>
       <c r="P139">
         <v>1</v>
@@ -7634,46 +7637,46 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2.2467919473358426e-14</v>
+        <v>0.075110964659290194</v>
       </c>
       <c r="C140">
-        <v>0.03360952932026158</v>
+        <v>0.044417798599669003</v>
       </c>
       <c r="D140">
-        <v>0.16573051460761953</v>
+        <v>0.017253816159746759</v>
       </c>
       <c r="E140">
-        <v>0.094545302404544326</v>
+        <v>0.095778933131575039</v>
       </c>
       <c r="F140">
-        <v>0.039562565263199428</v>
+        <v>0.040312022248488157</v>
       </c>
       <c r="G140">
-        <v>0.195765281104199</v>
+        <v>0.19594109460327114</v>
       </c>
       <c r="H140">
-        <v>0.003409820575442923</v>
+        <v>0.0091394783764806881</v>
       </c>
       <c r="I140">
-        <v>0.10624283411761876</v>
+        <v>0.10137440759953976</v>
       </c>
       <c r="J140">
-        <v>0.10302868865562301</v>
+        <v>0.091895510325636726</v>
       </c>
       <c r="K140">
-        <v>0.050975466631249411</v>
+        <v>0.046385066677355126</v>
       </c>
       <c r="L140">
-        <v>0.016450823183064071</v>
+        <v>0.025426674462830069</v>
       </c>
       <c r="M140">
-        <v>0.10734975730643015</v>
+        <v>0.11077414730793687</v>
       </c>
       <c r="N140">
-        <v>0.074617534211071354</v>
+        <v>0.095434473666447209</v>
       </c>
       <c r="O140">
-        <v>0.0087118826196540249</v>
+        <v>0.050755612181733287</v>
       </c>
       <c r="P140">
         <v>1</v>
@@ -7684,49 +7687,49 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2.2798390028810817e-14</v>
+        <v>2.2467919473358426e-14</v>
       </c>
       <c r="C141">
-        <v>0.0068756985702411021</v>
+        <v>0.03360952932026158</v>
       </c>
       <c r="D141">
-        <v>0.55635139407502388</v>
+        <v>0.16573051460761953</v>
       </c>
       <c r="E141">
-        <v>0.050503604162584405</v>
+        <v>0.094545302404544326</v>
       </c>
       <c r="F141">
-        <v>0.020207334130997831</v>
+        <v>0.039562565263199428</v>
       </c>
       <c r="G141">
-        <v>0.10942219386557538</v>
+        <v>0.195765281104199</v>
       </c>
       <c r="H141">
-        <v>0.0081221666349912888</v>
+        <v>0.003409820575442923</v>
       </c>
       <c r="I141">
-        <v>0.052844864940532643</v>
+        <v>0.10624283411761876</v>
       </c>
       <c r="J141">
-        <v>0.059470227143342408</v>
+        <v>0.10302868865562301</v>
       </c>
       <c r="K141">
-        <v>0.020133897253032568</v>
+        <v>0.050975466631249411</v>
       </c>
       <c r="L141">
-        <v>0.0047884455782169289</v>
+        <v>0.016450823183064071</v>
       </c>
       <c r="M141">
-        <v>0.060697131701648498</v>
+        <v>0.10734975730643015</v>
       </c>
       <c r="N141">
-        <v>0.045939249630896309</v>
+        <v>0.074617534211071354</v>
       </c>
       <c r="O141">
-        <v>0.0046437923128939962</v>
+        <v>0.0087118826196540249</v>
       </c>
       <c r="P141">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -7734,49 +7737,49 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2.2441159794263996e-14</v>
+        <v>2.2798390028810817e-14</v>
       </c>
       <c r="C142">
-        <v>0.01087122413292421</v>
+        <v>0.0068756985702411021</v>
       </c>
       <c r="D142">
-        <v>0.33939337083910631</v>
+        <v>0.55635139407502388</v>
       </c>
       <c r="E142">
-        <v>0.078049692430945256</v>
+        <v>0.050503604162584405</v>
       </c>
       <c r="F142">
-        <v>0.031851914551557912</v>
+        <v>0.020207334130997831</v>
       </c>
       <c r="G142">
-        <v>0.16817939668866175</v>
+        <v>0.10942219386557538</v>
       </c>
       <c r="H142">
-        <v>0.0035961601790180622</v>
+        <v>0.0081221666349912888</v>
       </c>
       <c r="I142">
-        <v>0.079162611762835053</v>
+        <v>0.052844864940532643</v>
       </c>
       <c r="J142">
-        <v>0.073081506451808484</v>
+        <v>0.059470227143342408</v>
       </c>
       <c r="K142">
-        <v>0.034848119697583356</v>
+        <v>0.020133897253032568</v>
       </c>
       <c r="L142">
-        <v>0.011357324411395628</v>
+        <v>0.0047884455782169289</v>
       </c>
       <c r="M142">
-        <v>0.090919135391531417</v>
+        <v>0.060697131701648498</v>
       </c>
       <c r="N142">
-        <v>0.076665812976483949</v>
+        <v>0.045939249630896309</v>
       </c>
       <c r="O142">
-        <v>0.0020237304861261789</v>
+        <v>0.0046437923128939962</v>
       </c>
       <c r="P142">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -7784,46 +7787,46 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.080317569752804907</v>
+        <v>2.2441159794263996e-14</v>
       </c>
       <c r="C143">
-        <v>0.012440778017711847</v>
+        <v>0.01087122413292421</v>
       </c>
       <c r="D143">
-        <v>0.0095533525322859369</v>
+        <v>0.33939337083910631</v>
       </c>
       <c r="E143">
-        <v>0.096863945294463891</v>
+        <v>0.078049692430945256</v>
       </c>
       <c r="F143">
-        <v>0.044562002156552323</v>
+        <v>0.031851914551557912</v>
       </c>
       <c r="G143">
-        <v>0.19772591927605618</v>
+        <v>0.16817939668866175</v>
       </c>
       <c r="H143">
-        <v>0.021940958112080654</v>
+        <v>0.0035961601790180622</v>
       </c>
       <c r="I143">
-        <v>0.10638263415917995</v>
+        <v>0.079162611762835053</v>
       </c>
       <c r="J143">
-        <v>0.097170235870992133</v>
+        <v>0.073081506451808484</v>
       </c>
       <c r="K143">
-        <v>0.048018032267582653</v>
+        <v>0.034848119697583356</v>
       </c>
       <c r="L143">
-        <v>0.024332071067306692</v>
+        <v>0.011357324411395628</v>
       </c>
       <c r="M143">
-        <v>0.11152164664823656</v>
+        <v>0.090919135391531417</v>
       </c>
       <c r="N143">
-        <v>0.085658963003105659</v>
+        <v>0.076665812976483949</v>
       </c>
       <c r="O143">
-        <v>0.063511891841640605</v>
+        <v>0.0020237304861261789</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -7834,46 +7837,46 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2.2370541542914621e-14</v>
+        <v>0.080317569752804907</v>
       </c>
       <c r="C144">
-        <v>0.010810220177940753</v>
+        <v>0.012440778017711847</v>
       </c>
       <c r="D144">
-        <v>0.00075966796470279877</v>
+        <v>0.0095533525322859369</v>
       </c>
       <c r="E144">
-        <v>0.082618955140456904</v>
+        <v>0.096863945294463891</v>
       </c>
       <c r="F144">
-        <v>0.030768898639687448</v>
+        <v>0.044562002156552323</v>
       </c>
       <c r="G144">
-        <v>0.17048936032240433</v>
+        <v>0.19772591927605618</v>
       </c>
       <c r="H144">
-        <v>0.0037633863548294025</v>
+        <v>0.021940958112080654</v>
       </c>
       <c r="I144">
-        <v>0.082021315664553146</v>
+        <v>0.10638263415917995</v>
       </c>
       <c r="J144">
-        <v>0.090927049148013417</v>
+        <v>0.097170235870992133</v>
       </c>
       <c r="K144">
-        <v>0.031281879686400817</v>
+        <v>0.048018032267582653</v>
       </c>
       <c r="L144">
-        <v>0.027882898206827447</v>
+        <v>0.024332071067306692</v>
       </c>
       <c r="M144">
-        <v>0.098718648377379786</v>
+        <v>0.11152164664823656</v>
       </c>
       <c r="N144">
-        <v>0.082111771712764681</v>
+        <v>0.085658963003105659</v>
       </c>
       <c r="O144">
-        <v>0.28784594860401669</v>
+        <v>0.063511891841640605</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -7884,46 +7887,46 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.2214707649933944e-14</v>
+        <v>2.2370541542914621e-14</v>
       </c>
       <c r="C145">
-        <v>0.01627337427713384</v>
+        <v>0.010810220177940753</v>
       </c>
       <c r="D145">
-        <v>0.047378739517661174</v>
+        <v>0.00075966796470279877</v>
       </c>
       <c r="E145">
-        <v>0.092434161314027208</v>
+        <v>0.082618955140456904</v>
       </c>
       <c r="F145">
-        <v>0.031294480293299336</v>
+        <v>0.030768898639687448</v>
       </c>
       <c r="G145">
-        <v>0.19253556236791711</v>
+        <v>0.17048936032240433</v>
       </c>
       <c r="H145">
-        <v>0.01153331579201303</v>
+        <v>0.0037633863548294025</v>
       </c>
       <c r="I145">
-        <v>0.0965779111787681</v>
+        <v>0.082021315664553146</v>
       </c>
       <c r="J145">
-        <v>0.099957497470999315</v>
+        <v>0.090927049148013417</v>
       </c>
       <c r="K145">
-        <v>0.026809860035054259</v>
+        <v>0.031281879686400817</v>
       </c>
       <c r="L145">
-        <v>0.013976881425592775</v>
+        <v>0.027882898206827447</v>
       </c>
       <c r="M145">
-        <v>0.10592448401233764</v>
+        <v>0.098718648377379786</v>
       </c>
       <c r="N145">
-        <v>0.099889599701935144</v>
+        <v>0.082111771712764681</v>
       </c>
       <c r="O145">
-        <v>0.16541413261323873</v>
+        <v>0.28784594860401669</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -7934,46 +7937,46 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.049585987921508978</v>
+        <v>2.2214707649933944e-14</v>
       </c>
       <c r="C146">
-        <v>0.014649268506056164</v>
+        <v>0.01627337427713384</v>
       </c>
       <c r="D146">
-        <v>0.077951729130584416</v>
+        <v>0.047378739517661174</v>
       </c>
       <c r="E146">
-        <v>0.090805137067958341</v>
+        <v>0.092434161314027208</v>
       </c>
       <c r="F146">
-        <v>0.04014166848804767</v>
+        <v>0.031294480293299336</v>
       </c>
       <c r="G146">
-        <v>0.190152940163197</v>
+        <v>0.19253556236791711</v>
       </c>
       <c r="H146">
-        <v>0.015922507865181741</v>
+        <v>0.01153331579201303</v>
       </c>
       <c r="I146">
-        <v>0.11168235126316527</v>
+        <v>0.0965779111787681</v>
       </c>
       <c r="J146">
-        <v>0.091164089677786123</v>
+        <v>0.099957497470999315</v>
       </c>
       <c r="K146">
-        <v>0.033209500907916363</v>
+        <v>0.026809860035054259</v>
       </c>
       <c r="L146">
-        <v>0.016782319046728979</v>
+        <v>0.013976881425592775</v>
       </c>
       <c r="M146">
-        <v>0.10529540300082285</v>
+        <v>0.10592448401233764</v>
       </c>
       <c r="N146">
-        <v>0.087795827407156149</v>
+        <v>0.099889599701935144</v>
       </c>
       <c r="O146">
-        <v>0.074861269553889775</v>
+        <v>0.16541413261323873</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -7984,46 +7987,46 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.05425117685505243</v>
+        <v>0.049585987921508978</v>
       </c>
       <c r="C147">
-        <v>0.034021200406366379</v>
+        <v>0.014649268506056164</v>
       </c>
       <c r="D147">
-        <v>0.037455675620294726</v>
+        <v>0.077951729130584416</v>
       </c>
       <c r="E147">
-        <v>0.09280097251881711</v>
+        <v>0.090805137067958341</v>
       </c>
       <c r="F147">
-        <v>0.048623308618340508</v>
+        <v>0.04014166848804767</v>
       </c>
       <c r="G147">
-        <v>0.19379279404715463</v>
+        <v>0.190152940163197</v>
       </c>
       <c r="H147">
-        <v>0.0061022076115610693</v>
+        <v>0.015922507865181741</v>
       </c>
       <c r="I147">
-        <v>0.086752595798521209</v>
+        <v>0.11168235126316527</v>
       </c>
       <c r="J147">
-        <v>0.09410738586684736</v>
+        <v>0.091164089677786123</v>
       </c>
       <c r="K147">
-        <v>0.057410573210657671</v>
+        <v>0.033209500907916363</v>
       </c>
       <c r="L147">
-        <v>0.024798424190044046</v>
+        <v>0.016782319046728979</v>
       </c>
       <c r="M147">
-        <v>0.10857013614346038</v>
+        <v>0.10529540300082285</v>
       </c>
       <c r="N147">
-        <v>0.090361825844755383</v>
+        <v>0.087795827407156149</v>
       </c>
       <c r="O147">
-        <v>0.070951723268127015</v>
+        <v>0.074861269553889775</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -8034,46 +8037,46 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.066813014039827798</v>
+        <v>0.05425117685505243</v>
       </c>
       <c r="C148">
-        <v>0.028146180149019082</v>
+        <v>0.034021200406366379</v>
       </c>
       <c r="D148">
-        <v>0.075047097555224554</v>
+        <v>0.037455675620294726</v>
       </c>
       <c r="E148">
-        <v>0.095126428838487639</v>
+        <v>0.09280097251881711</v>
       </c>
       <c r="F148">
-        <v>0.040512124769077049</v>
+        <v>0.048623308618340508</v>
       </c>
       <c r="G148">
-        <v>0.19898974130690014</v>
+        <v>0.19379279404715463</v>
       </c>
       <c r="H148">
-        <v>0.0088957354164475363</v>
+        <v>0.0061022076115610693</v>
       </c>
       <c r="I148">
-        <v>0.098770508353936498</v>
+        <v>0.086752595798521209</v>
       </c>
       <c r="J148">
-        <v>0.095879836363073137</v>
+        <v>0.09410738586684736</v>
       </c>
       <c r="K148">
-        <v>0.060537254799880959</v>
+        <v>0.057410573210657671</v>
       </c>
       <c r="L148">
-        <v>0.027605479036914966</v>
+        <v>0.024798424190044046</v>
       </c>
       <c r="M148">
-        <v>0.10875266360957878</v>
+        <v>0.10857013614346038</v>
       </c>
       <c r="N148">
-        <v>0.084106036046548274</v>
+        <v>0.090361825844755383</v>
       </c>
       <c r="O148">
-        <v>0.010817899715083538</v>
+        <v>0.070951723268127015</v>
       </c>
       <c r="P148">
         <v>1</v>
@@ -8084,46 +8087,46 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.2892140515012093e-14</v>
+        <v>0.066813014039827798</v>
       </c>
       <c r="C149">
-        <v>0.038973718804889868</v>
+        <v>0.028146180149019082</v>
       </c>
       <c r="D149">
-        <v>0.13509224957352603</v>
+        <v>0.075047097555224554</v>
       </c>
       <c r="E149">
-        <v>0.096262628276035087</v>
+        <v>0.095126428838487639</v>
       </c>
       <c r="F149">
-        <v>0.047773050410481799</v>
+        <v>0.040512124769077049</v>
       </c>
       <c r="G149">
-        <v>0.19704641634591882</v>
+        <v>0.19898974130690014</v>
       </c>
       <c r="H149">
-        <v>0.0043380651267916487</v>
+        <v>0.0088957354164475363</v>
       </c>
       <c r="I149">
-        <v>0.088869507224645997</v>
+        <v>0.098770508353936498</v>
       </c>
       <c r="J149">
-        <v>0.10177939867861226</v>
+        <v>0.095879836363073137</v>
       </c>
       <c r="K149">
-        <v>0.039732435198817057</v>
+        <v>0.060537254799880959</v>
       </c>
       <c r="L149">
-        <v>0.021454990768780068</v>
+        <v>0.027605479036914966</v>
       </c>
       <c r="M149">
-        <v>0.11055178722622234</v>
+        <v>0.10875266360957878</v>
       </c>
       <c r="N149">
-        <v>0.10666307996117556</v>
+        <v>0.084106036046548274</v>
       </c>
       <c r="O149">
-        <v>0.011462672404080561</v>
+        <v>0.010817899715083538</v>
       </c>
       <c r="P149">
         <v>1</v>
@@ -8184,46 +8187,46 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2.2283683963334446e-14</v>
+        <v>2.2892140515012093e-14</v>
       </c>
       <c r="C151">
-        <v>0.0035425008295586055</v>
+        <v>0.038973718804889868</v>
       </c>
       <c r="D151">
-        <v>0.019621947272658223</v>
+        <v>0.13509224957352603</v>
       </c>
       <c r="E151">
-        <v>0.08844265670310833</v>
+        <v>0.096262628276035087</v>
       </c>
       <c r="F151">
-        <v>0.032931797046082026</v>
+        <v>0.047773050410481799</v>
       </c>
       <c r="G151">
-        <v>0.18657678569674951</v>
+        <v>0.19704641634591882</v>
       </c>
       <c r="H151">
-        <v>0.029367483278611339</v>
+        <v>0.0043380651267916487</v>
       </c>
       <c r="I151">
-        <v>0.096687659138414331</v>
+        <v>0.088869507224645997</v>
       </c>
       <c r="J151">
-        <v>0.10368473905098501</v>
+        <v>0.10177939867861226</v>
       </c>
       <c r="K151">
-        <v>0.017653493039418849</v>
+        <v>0.039732435198817057</v>
       </c>
       <c r="L151">
-        <v>0.018068572319684919</v>
+        <v>0.021454990768780068</v>
       </c>
       <c r="M151">
-        <v>0.10615741806399603</v>
+        <v>0.11055178722622234</v>
       </c>
       <c r="N151">
-        <v>0.077065566955621639</v>
+        <v>0.10666307996117556</v>
       </c>
       <c r="O151">
-        <v>0.2201993806050889</v>
+        <v>0.011462672404080561</v>
       </c>
       <c r="P151">
         <v>1</v>
@@ -8234,46 +8237,46 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2.2217005321795348e-14</v>
+        <v>2.2283683963334446e-14</v>
       </c>
       <c r="C152">
-        <v>0.049365220926562516</v>
+        <v>0.0035425008295586055</v>
       </c>
       <c r="D152">
-        <v>0.027518865836551575</v>
+        <v>0.019621947272658223</v>
       </c>
       <c r="E152">
-        <v>0.092499102318128704</v>
+        <v>0.08844265670310833</v>
       </c>
       <c r="F152">
-        <v>0.046248030126736929</v>
+        <v>0.032931797046082026</v>
       </c>
       <c r="G152">
-        <v>0.19122234430131754</v>
+        <v>0.18657678569674951</v>
       </c>
       <c r="H152">
-        <v>0.0036632425934868627</v>
+        <v>0.029367483278611339</v>
       </c>
       <c r="I152">
-        <v>0.095260279303318124</v>
+        <v>0.096687659138414331</v>
       </c>
       <c r="J152">
-        <v>0.0938163497891846</v>
+        <v>0.10368473905098501</v>
       </c>
       <c r="K152">
-        <v>0.034197882926539101</v>
+        <v>0.017653493039418849</v>
       </c>
       <c r="L152">
-        <v>0.017399512694669009</v>
+        <v>0.018068572319684919</v>
       </c>
       <c r="M152">
-        <v>0.10811578539512944</v>
+        <v>0.10615741806399603</v>
       </c>
       <c r="N152">
-        <v>0.079370892213519451</v>
+        <v>0.077065566955621639</v>
       </c>
       <c r="O152">
-        <v>0.16132249157483394</v>
+        <v>0.2201993806050889</v>
       </c>
       <c r="P152">
         <v>1</v>
@@ -8284,46 +8287,46 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2.456468858874162e-14</v>
+        <v>2.2217005321795348e-14</v>
       </c>
       <c r="C153">
-        <v>0.010402069897352829</v>
+        <v>0.049365220926562516</v>
       </c>
       <c r="D153">
-        <v>0.00073207501232478486</v>
+        <v>0.027518865836551575</v>
       </c>
       <c r="E153">
-        <v>0.10265736473456087</v>
+        <v>0.092499102318128704</v>
       </c>
       <c r="F153">
-        <v>0.053985003522382155</v>
+        <v>0.046248030126736929</v>
       </c>
       <c r="G153">
-        <v>0.209876351864655</v>
+        <v>0.19122234430131754</v>
       </c>
       <c r="H153">
-        <v>0.026532742149205753</v>
+        <v>0.0036632425934868627</v>
       </c>
       <c r="I153">
-        <v>0.10436068672015228</v>
+        <v>0.095260279303318124</v>
       </c>
       <c r="J153">
-        <v>0.1164839941451607</v>
+        <v>0.0938163497891846</v>
       </c>
       <c r="K153">
-        <v>0.029977507100146891</v>
+        <v>0.034197882926539101</v>
       </c>
       <c r="L153">
-        <v>0.017486636584820591</v>
+        <v>0.017399512694669009</v>
       </c>
       <c r="M153">
-        <v>0.12514706745220619</v>
+        <v>0.10811578539512944</v>
       </c>
       <c r="N153">
-        <v>0.10791892698795873</v>
+        <v>0.079370892213519451</v>
       </c>
       <c r="O153">
-        <v>0.094439573829048731</v>
+        <v>0.16132249157483394</v>
       </c>
       <c r="P153">
         <v>1</v>
@@ -8334,46 +8337,46 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.2416426812445042e-14</v>
+        <v>2.456468858874162e-14</v>
       </c>
       <c r="C154">
-        <v>0.033113605085058069</v>
+        <v>0.010402069897352829</v>
       </c>
       <c r="D154">
-        <v>0.020247676831974374</v>
+        <v>0.00073207501232478486</v>
       </c>
       <c r="E154">
-        <v>0.080861526775911047</v>
+        <v>0.10265736473456087</v>
       </c>
       <c r="F154">
-        <v>0.042770288368266927</v>
+        <v>0.053985003522382155</v>
       </c>
       <c r="G154">
-        <v>0.16968934379748354</v>
+        <v>0.209876351864655</v>
       </c>
       <c r="H154">
-        <v>0.0040299404199330684</v>
+        <v>0.026532742149205753</v>
       </c>
       <c r="I154">
-        <v>0.081197786396083937</v>
+        <v>0.10436068672015228</v>
       </c>
       <c r="J154">
-        <v>0.083467656858486561</v>
+        <v>0.1164839941451607</v>
       </c>
       <c r="K154">
-        <v>0.037226749854330464</v>
+        <v>0.029977507100146891</v>
       </c>
       <c r="L154">
-        <v>0.019111800411425562</v>
+        <v>0.017486636584820591</v>
       </c>
       <c r="M154">
-        <v>0.093572785030360775</v>
+        <v>0.12514706745220619</v>
       </c>
       <c r="N154">
-        <v>0.065753429679579603</v>
+        <v>0.10791892698795873</v>
       </c>
       <c r="O154">
-        <v>0.26895741049108357</v>
+        <v>0.094439573829048731</v>
       </c>
       <c r="P154">
         <v>1</v>
@@ -8384,46 +8387,46 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.098146046052667982</v>
+        <v>2.2416426812445042e-14</v>
       </c>
       <c r="C155">
-        <v>0.028392045182663663</v>
+        <v>0.033113605085058069</v>
       </c>
       <c r="D155">
-        <v>0.029251989043824467</v>
+        <v>0.020247676831974374</v>
       </c>
       <c r="E155">
-        <v>0.098513499871220891</v>
+        <v>0.080861526775911047</v>
       </c>
       <c r="F155">
-        <v>0.046973229760232466</v>
+        <v>0.042770288368266927</v>
       </c>
       <c r="G155">
-        <v>0.19959510760025029</v>
+        <v>0.16968934379748354</v>
       </c>
       <c r="H155">
-        <v>0.011965267608382318</v>
+        <v>0.0040299404199330684</v>
       </c>
       <c r="I155">
-        <v>0.086406643975355205</v>
+        <v>0.081197786396083937</v>
       </c>
       <c r="J155">
-        <v>0.10734569100286463</v>
+        <v>0.083467656858486561</v>
       </c>
       <c r="K155">
-        <v>0.040724196234607692</v>
+        <v>0.037226749854330464</v>
       </c>
       <c r="L155">
-        <v>0.02994023505399087</v>
+        <v>0.019111800411425562</v>
       </c>
       <c r="M155">
-        <v>0.11401127060938247</v>
+        <v>0.093572785030360775</v>
       </c>
       <c r="N155">
-        <v>0.088693638190459556</v>
+        <v>0.065753429679579603</v>
       </c>
       <c r="O155">
-        <v>0.020041139814097612</v>
+        <v>0.26895741049108357</v>
       </c>
       <c r="P155">
         <v>1</v>
@@ -8434,46 +8437,46 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.05425117685505243</v>
+        <v>0.098146046052667982</v>
       </c>
       <c r="C156">
-        <v>0.034021200406366379</v>
+        <v>0.028392045182663663</v>
       </c>
       <c r="D156">
-        <v>0.037455675620294726</v>
+        <v>0.029251989043824467</v>
       </c>
       <c r="E156">
-        <v>0.09280097251881711</v>
+        <v>0.098513499871220891</v>
       </c>
       <c r="F156">
-        <v>0.048623308618340508</v>
+        <v>0.046973229760232466</v>
       </c>
       <c r="G156">
-        <v>0.19379279404715463</v>
+        <v>0.19959510760025029</v>
       </c>
       <c r="H156">
-        <v>0.0061022076115610693</v>
+        <v>0.011965267608382318</v>
       </c>
       <c r="I156">
-        <v>0.086752595798521209</v>
+        <v>0.086406643975355205</v>
       </c>
       <c r="J156">
-        <v>0.09410738586684736</v>
+        <v>0.10734569100286463</v>
       </c>
       <c r="K156">
-        <v>0.057410573210657671</v>
+        <v>0.040724196234607692</v>
       </c>
       <c r="L156">
-        <v>0.024798424190044046</v>
+        <v>0.02994023505399087</v>
       </c>
       <c r="M156">
-        <v>0.10857013614346038</v>
+        <v>0.11401127060938247</v>
       </c>
       <c r="N156">
-        <v>0.090361825844755383</v>
+        <v>0.088693638190459556</v>
       </c>
       <c r="O156">
-        <v>0.070951723268127015</v>
+        <v>0.020041139814097612</v>
       </c>
       <c r="P156">
         <v>1</v>
@@ -8484,46 +8487,46 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2.2262025105516507e-14</v>
+        <v>0.05425117685505243</v>
       </c>
       <c r="C157">
-        <v>0.013924520622285516</v>
+        <v>0.034021200406366379</v>
       </c>
       <c r="D157">
-        <v>0.21163144708192189</v>
+        <v>0.037455675620294726</v>
       </c>
       <c r="E157">
-        <v>0.089531797120231696</v>
+        <v>0.09280097251881711</v>
       </c>
       <c r="F157">
-        <v>0.036601392141144509</v>
+        <v>0.048623308618340508</v>
       </c>
       <c r="G157">
-        <v>0.18437041734895687</v>
+        <v>0.19379279404715463</v>
       </c>
       <c r="H157">
-        <v>0.013877959019967296</v>
+        <v>0.0061022076115610693</v>
       </c>
       <c r="I157">
-        <v>0.099396660722819677</v>
+        <v>0.086752595798521209</v>
       </c>
       <c r="J157">
-        <v>0.10195212119406988</v>
+        <v>0.09410738586684736</v>
       </c>
       <c r="K157">
-        <v>0.043053601440436455</v>
+        <v>0.057410573210657671</v>
       </c>
       <c r="L157">
-        <v>0.0074342031777050567</v>
+        <v>0.024798424190044046</v>
       </c>
       <c r="M157">
-        <v>0.10236483819403261</v>
+        <v>0.10857013614346038</v>
       </c>
       <c r="N157">
-        <v>0.090212578974927154</v>
+        <v>0.090361825844755383</v>
       </c>
       <c r="O157">
-        <v>0.0056484629614790985</v>
+        <v>0.070951723268127015</v>
       </c>
       <c r="P157">
         <v>1</v>
@@ -8534,46 +8537,46 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.078118002059687219</v>
+        <v>2.2262025105516507e-14</v>
       </c>
       <c r="C158">
-        <v>0.0087035546632147406</v>
+        <v>0.013924520622285516</v>
       </c>
       <c r="D158">
-        <v>0.0088646833095294298</v>
+        <v>0.21163144708192189</v>
       </c>
       <c r="E158">
-        <v>0.096414253949053827</v>
+        <v>0.089531797120231696</v>
       </c>
       <c r="F158">
-        <v>0.046400552639021077</v>
+        <v>0.036601392141144509</v>
       </c>
       <c r="G158">
-        <v>0.19761951026466679</v>
+        <v>0.18437041734895687</v>
       </c>
       <c r="H158">
-        <v>0.043289775047563574</v>
+        <v>0.013877959019967296</v>
       </c>
       <c r="I158">
-        <v>0.1122013128659923</v>
+        <v>0.099396660722819677</v>
       </c>
       <c r="J158">
-        <v>0.10859432496102048</v>
+        <v>0.10195212119406988</v>
       </c>
       <c r="K158">
-        <v>0.048963228268784451</v>
+        <v>0.043053601440436455</v>
       </c>
       <c r="L158">
-        <v>0.028887379287582355</v>
+        <v>0.0074342031777050567</v>
       </c>
       <c r="M158">
-        <v>0.11404379045540249</v>
+        <v>0.10236483819403261</v>
       </c>
       <c r="N158">
-        <v>0.078240560860302302</v>
+        <v>0.090212578974927154</v>
       </c>
       <c r="O158">
-        <v>0.02965907136817891</v>
+        <v>0.0056484629614790985</v>
       </c>
       <c r="P158">
         <v>1</v>
@@ -8584,46 +8587,46 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2.5646561981832638e-14</v>
+        <v>0.078118002059687219</v>
       </c>
       <c r="C159">
-        <v>0.009299811785529067</v>
+        <v>0.0087035546632147406</v>
       </c>
       <c r="D159">
-        <v>0.0010752715174482165</v>
+        <v>0.0088646833095294298</v>
       </c>
       <c r="E159">
-        <v>0.10687565894797794</v>
+        <v>0.096414253949053827</v>
       </c>
       <c r="F159">
-        <v>0.044687293278446227</v>
+        <v>0.046400552639021077</v>
       </c>
       <c r="G159">
-        <v>0.21265746786181239</v>
+        <v>0.19761951026466679</v>
       </c>
       <c r="H159">
-        <v>0.0044423385250485009</v>
+        <v>0.043289775047563574</v>
       </c>
       <c r="I159">
-        <v>0.11371489364429922</v>
+        <v>0.1122013128659923</v>
       </c>
       <c r="J159">
-        <v>0.11853781560349963</v>
+        <v>0.10859432496102048</v>
       </c>
       <c r="K159">
-        <v>0.053298174193252619</v>
+        <v>0.048963228268784451</v>
       </c>
       <c r="L159">
-        <v>0.043232493965276515</v>
+        <v>0.028887379287582355</v>
       </c>
       <c r="M159">
-        <v>0.12855586498471214</v>
+        <v>0.11404379045540249</v>
       </c>
       <c r="N159">
-        <v>0.12570026382177993</v>
+        <v>0.078240560860302302</v>
       </c>
       <c r="O159">
-        <v>0.037922651870891895</v>
+        <v>0.02965907136817891</v>
       </c>
       <c r="P159">
         <v>1</v>
@@ -8634,46 +8637,46 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2.261141549518246e-14</v>
+        <v>2.5646561981832638e-14</v>
       </c>
       <c r="C160">
-        <v>0.0062923790084640384</v>
+        <v>0.009299811785529067</v>
       </c>
       <c r="D160">
-        <v>0.0061448914558268819</v>
+        <v>0.0010752715174482165</v>
       </c>
       <c r="E160">
-        <v>0.095213857011649333</v>
+        <v>0.10687565894797794</v>
       </c>
       <c r="F160">
-        <v>0.036745849038948675</v>
+        <v>0.044687293278446227</v>
       </c>
       <c r="G160">
-        <v>0.2005686121699719</v>
+        <v>0.21265746786181239</v>
       </c>
       <c r="H160">
-        <v>0.021760783434990803</v>
+        <v>0.0044423385250485009</v>
       </c>
       <c r="I160">
-        <v>0.091734861847990734</v>
+        <v>0.11371489364429922</v>
       </c>
       <c r="J160">
-        <v>0.11152864708774302</v>
+        <v>0.11853781560349963</v>
       </c>
       <c r="K160">
-        <v>0.024218893006969611</v>
+        <v>0.053298174193252619</v>
       </c>
       <c r="L160">
-        <v>0.02109381908952937</v>
+        <v>0.043232493965276515</v>
       </c>
       <c r="M160">
-        <v>0.11133806363037851</v>
+        <v>0.12855586498471214</v>
       </c>
       <c r="N160">
-        <v>0.092796027807731385</v>
+        <v>0.12570026382177993</v>
       </c>
       <c r="O160">
-        <v>0.18056331540978307</v>
+        <v>0.037922651870891895</v>
       </c>
       <c r="P160">
         <v>1</v>
@@ -8684,46 +8687,46 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.2892140515012093e-14</v>
+        <v>2.261141549518246e-14</v>
       </c>
       <c r="C161">
-        <v>0.038973718804889868</v>
+        <v>0.0062923790084640384</v>
       </c>
       <c r="D161">
-        <v>0.13509224957352603</v>
+        <v>0.0061448914558268819</v>
       </c>
       <c r="E161">
-        <v>0.096262628276035087</v>
+        <v>0.095213857011649333</v>
       </c>
       <c r="F161">
-        <v>0.047773050410481799</v>
+        <v>0.036745849038948675</v>
       </c>
       <c r="G161">
-        <v>0.19704641634591882</v>
+        <v>0.2005686121699719</v>
       </c>
       <c r="H161">
-        <v>0.0043380651267916487</v>
+        <v>0.021760783434990803</v>
       </c>
       <c r="I161">
-        <v>0.088869507224645997</v>
+        <v>0.091734861847990734</v>
       </c>
       <c r="J161">
-        <v>0.10177939867861226</v>
+        <v>0.11152864708774302</v>
       </c>
       <c r="K161">
-        <v>0.039732435198817057</v>
+        <v>0.024218893006969611</v>
       </c>
       <c r="L161">
-        <v>0.021454990768780068</v>
+        <v>0.02109381908952937</v>
       </c>
       <c r="M161">
-        <v>0.11055178722622234</v>
+        <v>0.11133806363037851</v>
       </c>
       <c r="N161">
-        <v>0.10666307996117556</v>
+        <v>0.092796027807731385</v>
       </c>
       <c r="O161">
-        <v>0.011462672404080561</v>
+        <v>0.18056331540978307</v>
       </c>
       <c r="P161">
         <v>1</v>
@@ -8784,46 +8787,46 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.048271777473638686</v>
+        <v>2.2892140515012093e-14</v>
       </c>
       <c r="C163">
-        <v>0.020958981119767229</v>
+        <v>0.038973718804889868</v>
       </c>
       <c r="D163">
-        <v>0.0093008570234156766</v>
+        <v>0.13509224957352603</v>
       </c>
       <c r="E163">
-        <v>0.093538548729976509</v>
+        <v>0.096262628276035087</v>
       </c>
       <c r="F163">
-        <v>0.0404523037686777</v>
+        <v>0.047773050410481799</v>
       </c>
       <c r="G163">
-        <v>0.19586796140683693</v>
+        <v>0.19704641634591882</v>
       </c>
       <c r="H163">
-        <v>0.01219249282489812</v>
+        <v>0.0043380651267916487</v>
       </c>
       <c r="I163">
-        <v>0.096057629574995043</v>
+        <v>0.088869507224645997</v>
       </c>
       <c r="J163">
-        <v>0.099908273898926717</v>
+        <v>0.10177939867861226</v>
       </c>
       <c r="K163">
-        <v>0.043247638843255325</v>
+        <v>0.039732435198817057</v>
       </c>
       <c r="L163">
-        <v>0.014234197645128765</v>
+        <v>0.021454990768780068</v>
       </c>
       <c r="M163">
-        <v>0.10879991367673297</v>
+        <v>0.11055178722622234</v>
       </c>
       <c r="N163">
-        <v>0.077595446340565921</v>
+        <v>0.10666307996117556</v>
       </c>
       <c r="O163">
-        <v>0.13957397767318444</v>
+        <v>0.011462672404080561</v>
       </c>
       <c r="P163">
         <v>1</v>
@@ -8834,46 +8837,46 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2.2892140515012093e-14</v>
+        <v>0.048271777473638686</v>
       </c>
       <c r="C164">
-        <v>0.038973718804889868</v>
+        <v>0.020958981119767229</v>
       </c>
       <c r="D164">
-        <v>0.13509224957352603</v>
+        <v>0.0093008570234156766</v>
       </c>
       <c r="E164">
-        <v>0.096262628276035087</v>
+        <v>0.093538548729976509</v>
       </c>
       <c r="F164">
-        <v>0.047773050410481799</v>
+        <v>0.0404523037686777</v>
       </c>
       <c r="G164">
-        <v>0.19704641634591882</v>
+        <v>0.19586796140683693</v>
       </c>
       <c r="H164">
-        <v>0.0043380651267916487</v>
+        <v>0.01219249282489812</v>
       </c>
       <c r="I164">
-        <v>0.088869507224645997</v>
+        <v>0.096057629574995043</v>
       </c>
       <c r="J164">
-        <v>0.10177939867861226</v>
+        <v>0.099908273898926717</v>
       </c>
       <c r="K164">
-        <v>0.039732435198817057</v>
+        <v>0.043247638843255325</v>
       </c>
       <c r="L164">
-        <v>0.021454990768780068</v>
+        <v>0.014234197645128765</v>
       </c>
       <c r="M164">
-        <v>0.11055178722622234</v>
+        <v>0.10879991367673297</v>
       </c>
       <c r="N164">
-        <v>0.10666307996117556</v>
+        <v>0.077595446340565921</v>
       </c>
       <c r="O164">
-        <v>0.011462672404080561</v>
+        <v>0.13957397767318444</v>
       </c>
       <c r="P164">
         <v>1</v>
@@ -8884,46 +8887,46 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.2231410964307725e-14</v>
+        <v>2.2892140515012093e-14</v>
       </c>
       <c r="C165">
-        <v>0.029121428134566474</v>
+        <v>0.038973718804889868</v>
       </c>
       <c r="D165">
-        <v>0.14748194213815244</v>
+        <v>0.13509224957352603</v>
       </c>
       <c r="E165">
-        <v>0.091628542511248801</v>
+        <v>0.096262628276035087</v>
       </c>
       <c r="F165">
-        <v>0.037530241464808337</v>
+        <v>0.047773050410481799</v>
       </c>
       <c r="G165">
-        <v>0.19318034651093191</v>
+        <v>0.19704641634591882</v>
       </c>
       <c r="H165">
-        <v>0.0063501158949137732</v>
+        <v>0.0043380651267916487</v>
       </c>
       <c r="I165">
-        <v>0.088283831768090792</v>
+        <v>0.088869507224645997</v>
       </c>
       <c r="J165">
-        <v>0.098404911820284394</v>
+        <v>0.10177939867861226</v>
       </c>
       <c r="K165">
-        <v>0.032793504659618042</v>
+        <v>0.039732435198817057</v>
       </c>
       <c r="L165">
-        <v>0.017162673059043024</v>
+        <v>0.021454990768780068</v>
       </c>
       <c r="M165">
-        <v>0.10513468345147461</v>
+        <v>0.11055178722622234</v>
       </c>
       <c r="N165">
-        <v>0.074053137818587439</v>
+        <v>0.10666307996117556</v>
       </c>
       <c r="O165">
-        <v>0.078874640768257745</v>
+        <v>0.011462672404080561</v>
       </c>
       <c r="P165">
         <v>1</v>
@@ -8934,46 +8937,46 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2.2403038836915412e-14</v>
+        <v>2.2231410964307725e-14</v>
       </c>
       <c r="C166">
-        <v>0.020140595877878656</v>
+        <v>0.029121428134566474</v>
       </c>
       <c r="D166">
-        <v>0.10684673468455781</v>
+        <v>0.14748194213815244</v>
       </c>
       <c r="E166">
-        <v>0.081848048302615675</v>
+        <v>0.091628542511248801</v>
       </c>
       <c r="F166">
-        <v>0.028184427732392339</v>
+        <v>0.037530241464808337</v>
       </c>
       <c r="G166">
-        <v>0.17038748094076456</v>
+        <v>0.19318034651093191</v>
       </c>
       <c r="H166">
-        <v>0.0034857959633135625</v>
+        <v>0.0063501158949137732</v>
       </c>
       <c r="I166">
-        <v>0.093630688441507876</v>
+        <v>0.088283831768090792</v>
       </c>
       <c r="J166">
-        <v>0.084310634911207452</v>
+        <v>0.098404911820284394</v>
       </c>
       <c r="K166">
-        <v>0.026689192060638089</v>
+        <v>0.032793504659618042</v>
       </c>
       <c r="L166">
-        <v>0.011477314924050776</v>
+        <v>0.017162673059043024</v>
       </c>
       <c r="M166">
-        <v>0.094741686348905063</v>
+        <v>0.10513468345147461</v>
       </c>
       <c r="N166">
-        <v>0.087528294816335797</v>
+        <v>0.074053137818587439</v>
       </c>
       <c r="O166">
-        <v>0.19072910499580986</v>
+        <v>0.078874640768257745</v>
       </c>
       <c r="P166">
         <v>1</v>
@@ -8984,46 +8987,46 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.087135558741797084</v>
+        <v>2.2403038836915412e-14</v>
       </c>
       <c r="C167">
-        <v>0.011951256787167226</v>
+        <v>0.020140595877878656</v>
       </c>
       <c r="D167">
-        <v>0.009499874301113485</v>
+        <v>0.10684673468455781</v>
       </c>
       <c r="E167">
-        <v>0.097383615739974907</v>
+        <v>0.081848048302615675</v>
       </c>
       <c r="F167">
-        <v>0.048457695155840391</v>
+        <v>0.028184427732392339</v>
       </c>
       <c r="G167">
-        <v>0.19514915251037473</v>
+        <v>0.17038748094076456</v>
       </c>
       <c r="H167">
-        <v>0.0152998675087637</v>
+        <v>0.0034857959633135625</v>
       </c>
       <c r="I167">
-        <v>0.10068693027286732</v>
+        <v>0.093630688441507876</v>
       </c>
       <c r="J167">
-        <v>0.10138220976930797</v>
+        <v>0.084310634911207452</v>
       </c>
       <c r="K167">
-        <v>0.045607014079636708</v>
+        <v>0.026689192060638089</v>
       </c>
       <c r="L167">
-        <v>0.070923508213591765</v>
+        <v>0.011477314924050776</v>
       </c>
       <c r="M167">
-        <v>0.11927884914589608</v>
+        <v>0.094741686348905063</v>
       </c>
       <c r="N167">
-        <v>0.083017104408270759</v>
+        <v>0.087528294816335797</v>
       </c>
       <c r="O167">
-        <v>0.014227363365397941</v>
+        <v>0.19072910499580986</v>
       </c>
       <c r="P167">
         <v>1</v>
@@ -9034,46 +9037,46 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.068335452359811685</v>
+        <v>0.087135558741797084</v>
       </c>
       <c r="C168">
-        <v>0.023725797738451276</v>
+        <v>0.011951256787167226</v>
       </c>
       <c r="D168">
-        <v>0.018319708044382953</v>
+        <v>0.009499874301113485</v>
       </c>
       <c r="E168">
-        <v>0.096085584104049174</v>
+        <v>0.097383615739974907</v>
       </c>
       <c r="F168">
-        <v>0.040490319512956459</v>
+        <v>0.048457695155840391</v>
       </c>
       <c r="G168">
-        <v>0.19266327264291058</v>
+        <v>0.19514915251037473</v>
       </c>
       <c r="H168">
-        <v>0.01731957518757337</v>
+        <v>0.0152998675087637</v>
       </c>
       <c r="I168">
-        <v>0.10458065687209271</v>
+        <v>0.10068693027286732</v>
       </c>
       <c r="J168">
-        <v>0.1029157951377542</v>
+        <v>0.10138220976930797</v>
       </c>
       <c r="K168">
-        <v>0.036346922477040869</v>
+        <v>0.045607014079636708</v>
       </c>
       <c r="L168">
-        <v>0.013961556091471603</v>
+        <v>0.070923508213591765</v>
       </c>
       <c r="M168">
-        <v>0.11058542880135294</v>
+        <v>0.11927884914589608</v>
       </c>
       <c r="N168">
-        <v>0.14274904297765104</v>
+        <v>0.083017104408270759</v>
       </c>
       <c r="O168">
-        <v>0.03192088805250113</v>
+        <v>0.014227363365397941</v>
       </c>
       <c r="P168">
         <v>1</v>
@@ -9084,46 +9087,46 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.10415708646736239</v>
+        <v>0.068335452359811685</v>
       </c>
       <c r="C169">
-        <v>0.017915395061380502</v>
+        <v>0.023725797738451276</v>
       </c>
       <c r="D169">
-        <v>0.01511889283816607</v>
+        <v>0.018319708044382953</v>
       </c>
       <c r="E169">
-        <v>0.098343284479855797</v>
+        <v>0.096085584104049174</v>
       </c>
       <c r="F169">
-        <v>0.043857796786559225</v>
+        <v>0.040490319512956459</v>
       </c>
       <c r="G169">
-        <v>0.1979752074730402</v>
+        <v>0.19266327264291058</v>
       </c>
       <c r="H169">
-        <v>0.013426797140609776</v>
+        <v>0.01731957518757337</v>
       </c>
       <c r="I169">
-        <v>0.10606899295598364</v>
+        <v>0.10458065687209271</v>
       </c>
       <c r="J169">
-        <v>0.10292368678982904</v>
+        <v>0.1029157951377542</v>
       </c>
       <c r="K169">
-        <v>0.051983970920110541</v>
+        <v>0.036346922477040869</v>
       </c>
       <c r="L169">
-        <v>0.033433115495675951</v>
+        <v>0.013961556091471603</v>
       </c>
       <c r="M169">
-        <v>0.11435240181038646</v>
+        <v>0.11058542880135294</v>
       </c>
       <c r="N169">
-        <v>0.081666607474643119</v>
+        <v>0.14274904297765104</v>
       </c>
       <c r="O169">
-        <v>0.018776764306397242</v>
+        <v>0.03192088805250113</v>
       </c>
       <c r="P169">
         <v>1</v>
@@ -9134,46 +9137,46 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2.4923173388239557e-14</v>
+        <v>0.10415708646736239</v>
       </c>
       <c r="C170">
-        <v>0.010465434309372411</v>
+        <v>0.017915395061380502</v>
       </c>
       <c r="D170">
-        <v>0.0015726034976267771</v>
+        <v>0.01511889283816607</v>
       </c>
       <c r="E170">
-        <v>0.10365462181735548</v>
+        <v>0.098343284479855797</v>
       </c>
       <c r="F170">
-        <v>0.045223680152557053</v>
+        <v>0.043857796786559225</v>
       </c>
       <c r="G170">
-        <v>0.21477195104593616</v>
+        <v>0.1979752074730402</v>
       </c>
       <c r="H170">
-        <v>0.0039124955397015987</v>
+        <v>0.013426797140609776</v>
       </c>
       <c r="I170">
-        <v>0.10565914555009322</v>
+        <v>0.10606899295598364</v>
       </c>
       <c r="J170">
-        <v>0.1088550795126579</v>
+        <v>0.10292368678982904</v>
       </c>
       <c r="K170">
-        <v>0.044592299672001331</v>
+        <v>0.051983970920110541</v>
       </c>
       <c r="L170">
-        <v>0.036447594054717106</v>
+        <v>0.033433115495675951</v>
       </c>
       <c r="M170">
-        <v>0.12545689621082692</v>
+        <v>0.11435240181038646</v>
       </c>
       <c r="N170">
-        <v>0.084702289436359934</v>
+        <v>0.081666607474643119</v>
       </c>
       <c r="O170">
-        <v>0.11468590920076946</v>
+        <v>0.018776764306397242</v>
       </c>
       <c r="P170">
         <v>1</v>
@@ -9184,46 +9187,46 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2.2383567765770413e-14</v>
+        <v>2.4923173388239557e-14</v>
       </c>
       <c r="C171">
-        <v>0.025305439788860906</v>
+        <v>0.010465434309372411</v>
       </c>
       <c r="D171">
-        <v>0.14754005641054263</v>
+        <v>0.0015726034976267771</v>
       </c>
       <c r="E171">
-        <v>0.094644895756497899</v>
+        <v>0.10365462181735548</v>
       </c>
       <c r="F171">
-        <v>0.049066084551052033</v>
+        <v>0.045223680152557053</v>
       </c>
       <c r="G171">
-        <v>0.19238795114097035</v>
+        <v>0.21477195104593616</v>
       </c>
       <c r="H171">
-        <v>0.0029500552691577261</v>
+        <v>0.0039124955397015987</v>
       </c>
       <c r="I171">
-        <v>0.087007030162650809</v>
+        <v>0.10565914555009322</v>
       </c>
       <c r="J171">
-        <v>0.10581353793665081</v>
+        <v>0.1088550795126579</v>
       </c>
       <c r="K171">
-        <v>0.060712344840530515</v>
+        <v>0.044592299672001331</v>
       </c>
       <c r="L171">
-        <v>0.024075375775538404</v>
+        <v>0.036447594054717106</v>
       </c>
       <c r="M171">
-        <v>0.11274790155299474</v>
+        <v>0.12545689621082692</v>
       </c>
       <c r="N171">
-        <v>0.095712261213883112</v>
+        <v>0.084702289436359934</v>
       </c>
       <c r="O171">
-        <v>0.0020370656006479717</v>
+        <v>0.11468590920076946</v>
       </c>
       <c r="P171">
         <v>1</v>
@@ -9234,46 +9237,46 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2.2219019126812062e-14</v>
+        <v>2.2383567765770413e-14</v>
       </c>
       <c r="C172">
-        <v>0.017865985285730929</v>
+        <v>0.025305439788860906</v>
       </c>
       <c r="D172">
-        <v>0.18518693091072394</v>
+        <v>0.14754005641054263</v>
       </c>
       <c r="E172">
-        <v>0.092556778998841238</v>
+        <v>0.094644895756497899</v>
       </c>
       <c r="F172">
-        <v>0.042214701518097655</v>
+        <v>0.049066084551052033</v>
       </c>
       <c r="G172">
-        <v>0.18654245497431557</v>
+        <v>0.19238795114097035</v>
       </c>
       <c r="H172">
-        <v>0.0039558825228859489</v>
+        <v>0.0029500552691577261</v>
       </c>
       <c r="I172">
-        <v>0.089553020934717689</v>
+        <v>0.087007030162650809</v>
       </c>
       <c r="J172">
-        <v>0.11530181505006822</v>
+        <v>0.10581353793665081</v>
       </c>
       <c r="K172">
-        <v>0.039385684044691699</v>
+        <v>0.060712344840530515</v>
       </c>
       <c r="L172">
-        <v>0.021822145392782509</v>
+        <v>0.024075375775538404</v>
       </c>
       <c r="M172">
-        <v>0.10948381126925741</v>
+        <v>0.11274790155299474</v>
       </c>
       <c r="N172">
-        <v>0.089568057712775817</v>
+        <v>0.095712261213883112</v>
       </c>
       <c r="O172">
-        <v>0.0065627313850893975</v>
+        <v>0.0020370656006479717</v>
       </c>
       <c r="P172">
         <v>1</v>
@@ -9284,46 +9287,46 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.2744456111347062e-14</v>
+        <v>2.2219019126812062e-14</v>
       </c>
       <c r="C173">
-        <v>0.028155506311424956</v>
+        <v>0.017865985285730929</v>
       </c>
       <c r="D173">
-        <v>0.10510802026856647</v>
+        <v>0.18518693091072394</v>
       </c>
       <c r="E173">
-        <v>0.067048004684359244</v>
+        <v>0.092556778998841238</v>
       </c>
       <c r="F173">
-        <v>0.02701587369191016</v>
+        <v>0.042214701518097655</v>
       </c>
       <c r="G173">
-        <v>0.13885736452049002</v>
+        <v>0.18654245497431557</v>
       </c>
       <c r="H173">
-        <v>0.0025712977504938261</v>
+        <v>0.0039558825228859489</v>
       </c>
       <c r="I173">
-        <v>0.065783647559463324</v>
+        <v>0.089553020934717689</v>
       </c>
       <c r="J173">
-        <v>0.075409950552230307</v>
+        <v>0.11530181505006822</v>
       </c>
       <c r="K173">
-        <v>0.026475214381808367</v>
+        <v>0.039385684044691699</v>
       </c>
       <c r="L173">
-        <v>0.017837836270884259</v>
+        <v>0.021822145392782509</v>
       </c>
       <c r="M173">
-        <v>0.077573369034611359</v>
+        <v>0.10948381126925741</v>
       </c>
       <c r="N173">
-        <v>0.083516910609673908</v>
+        <v>0.089568057712775817</v>
       </c>
       <c r="O173">
-        <v>0.2846470043640611</v>
+        <v>0.0065627313850893975</v>
       </c>
       <c r="P173">
         <v>1</v>
@@ -9334,46 +9337,46 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2.4469518593592667e-14</v>
+        <v>2.2744456111347062e-14</v>
       </c>
       <c r="C174">
-        <v>0.0089423689521695281</v>
+        <v>0.028155506311424956</v>
       </c>
       <c r="D174">
-        <v>0.0013495449231738475</v>
+        <v>0.10510802026856647</v>
       </c>
       <c r="E174">
-        <v>0.10322848466250763</v>
+        <v>0.067048004684359244</v>
       </c>
       <c r="F174">
-        <v>0.044102028302850781</v>
+        <v>0.02701587369191016</v>
       </c>
       <c r="G174">
-        <v>0.20810838604484913</v>
+        <v>0.13885736452049002</v>
       </c>
       <c r="H174">
-        <v>0.0050967782472507777</v>
+        <v>0.0025712977504938261</v>
       </c>
       <c r="I174">
-        <v>0.11170052029238395</v>
+        <v>0.065783647559463324</v>
       </c>
       <c r="J174">
-        <v>0.098693049919827608</v>
+        <v>0.075409950552230307</v>
       </c>
       <c r="K174">
-        <v>0.03508301991120856</v>
+        <v>0.026475214381808367</v>
       </c>
       <c r="L174">
-        <v>0.045414277043912321</v>
+        <v>0.017837836270884259</v>
       </c>
       <c r="M174">
-        <v>0.12709049252245586</v>
+        <v>0.077573369034611359</v>
       </c>
       <c r="N174">
-        <v>0.12337907230345992</v>
+        <v>0.083516910609673908</v>
       </c>
       <c r="O174">
-        <v>0.087811976873925557</v>
+        <v>0.2846470043640611</v>
       </c>
       <c r="P174">
         <v>1</v>
@@ -9384,46 +9387,46 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.084825795297515841</v>
+        <v>2.4469518593592667e-14</v>
       </c>
       <c r="C175">
-        <v>0.016528297851499861</v>
+        <v>0.0089423689521695281</v>
       </c>
       <c r="D175">
-        <v>0.011333738794536054</v>
+        <v>0.0013495449231738475</v>
       </c>
       <c r="E175">
-        <v>0.097298600710344255</v>
+        <v>0.10322848466250763</v>
       </c>
       <c r="F175">
-        <v>0.041083910021533519</v>
+        <v>0.044102028302850781</v>
       </c>
       <c r="G175">
-        <v>0.19653882203343767</v>
+        <v>0.20810838604484913</v>
       </c>
       <c r="H175">
-        <v>0.02382715013563292</v>
+        <v>0.0050967782472507777</v>
       </c>
       <c r="I175">
-        <v>0.10371853869658169</v>
+        <v>0.11170052029238395</v>
       </c>
       <c r="J175">
-        <v>0.10456453027169306</v>
+        <v>0.098693049919827608</v>
       </c>
       <c r="K175">
-        <v>0.037290772342610294</v>
+        <v>0.03508301991120856</v>
       </c>
       <c r="L175">
-        <v>0.021820552817098268</v>
+        <v>0.045414277043912321</v>
       </c>
       <c r="M175">
-        <v>0.11354039297367155</v>
+        <v>0.12709049252245586</v>
       </c>
       <c r="N175">
-        <v>0.085922217895686784</v>
+        <v>0.12337907230345992</v>
       </c>
       <c r="O175">
-        <v>0.061706680158158174</v>
+        <v>0.087811976873925557</v>
       </c>
       <c r="P175">
         <v>1</v>
@@ -9434,46 +9437,46 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.0521340718764026</v>
+        <v>0.084825795297515841</v>
       </c>
       <c r="C176">
-        <v>0.031622289832990882</v>
+        <v>0.016528297851499861</v>
       </c>
       <c r="D176">
-        <v>0.069357686815627262</v>
+        <v>0.011333738794536054</v>
       </c>
       <c r="E176">
-        <v>0.093440383606531063</v>
+        <v>0.097298600710344255</v>
       </c>
       <c r="F176">
-        <v>0.03991694396538048</v>
+        <v>0.041083910021533519</v>
       </c>
       <c r="G176">
-        <v>0.19397659662242642</v>
+        <v>0.19653882203343767</v>
       </c>
       <c r="H176">
-        <v>0.0063778918643769477</v>
+        <v>0.02382715013563292</v>
       </c>
       <c r="I176">
-        <v>0.092001297043292754</v>
+        <v>0.10371853869658169</v>
       </c>
       <c r="J176">
-        <v>0.098438642055124051</v>
+        <v>0.10456453027169306</v>
       </c>
       <c r="K176">
-        <v>0.067377651075827702</v>
+        <v>0.037290772342610294</v>
       </c>
       <c r="L176">
-        <v>0.021794086963671338</v>
+        <v>0.021820552817098268</v>
       </c>
       <c r="M176">
-        <v>0.1061564846331058</v>
+        <v>0.11354039297367155</v>
       </c>
       <c r="N176">
-        <v>0.11173082879554365</v>
+        <v>0.085922217895686784</v>
       </c>
       <c r="O176">
-        <v>0.015675144849699084</v>
+        <v>0.061706680158158174</v>
       </c>
       <c r="P176">
         <v>1</v>
@@ -9484,46 +9487,46 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>2.2216343313174546e-14</v>
+        <v>0.0521340718764026</v>
       </c>
       <c r="C177">
-        <v>0.020706746091865985</v>
+        <v>0.031622289832990882</v>
       </c>
       <c r="D177">
-        <v>0.15739904141983108</v>
+        <v>0.069357686815627262</v>
       </c>
       <c r="E177">
-        <v>0.091932843012944659</v>
+        <v>0.093440383606531063</v>
       </c>
       <c r="F177">
-        <v>0.038192355700348062</v>
+        <v>0.03991694396538048</v>
       </c>
       <c r="G177">
-        <v>0.19265914708680065</v>
+        <v>0.19397659662242642</v>
       </c>
       <c r="H177">
-        <v>0.016017244554292508</v>
+        <v>0.0063778918643769477</v>
       </c>
       <c r="I177">
-        <v>0.092393471940143967</v>
+        <v>0.092001297043292754</v>
       </c>
       <c r="J177">
-        <v>0.10617240677068035</v>
+        <v>0.098438642055124051</v>
       </c>
       <c r="K177">
-        <v>0.028414239010699751</v>
+        <v>0.067377651075827702</v>
       </c>
       <c r="L177">
-        <v>0.011313539102773485</v>
+        <v>0.021794086963671338</v>
       </c>
       <c r="M177">
-        <v>0.10879171177700199</v>
+        <v>0.1061564846331058</v>
       </c>
       <c r="N177">
-        <v>0.091349315338210446</v>
+        <v>0.11173082879554365</v>
       </c>
       <c r="O177">
-        <v>0.044657938194384635</v>
+        <v>0.015675144849699084</v>
       </c>
       <c r="P177">
         <v>1</v>
@@ -9534,46 +9537,46 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2.2481352436997888e-14</v>
+        <v>2.2216343313174546e-14</v>
       </c>
       <c r="C178">
-        <v>0.0075977595024264537</v>
+        <v>0.020706746091865985</v>
       </c>
       <c r="D178">
-        <v>0.31376428679121948</v>
+        <v>0.15739904141983108</v>
       </c>
       <c r="E178">
-        <v>0.076614191426299633</v>
+        <v>0.091932843012944659</v>
       </c>
       <c r="F178">
-        <v>0.031637019117286343</v>
+        <v>0.038192355700348062</v>
       </c>
       <c r="G178">
-        <v>0.1663196972021517</v>
+        <v>0.19265914708680065</v>
       </c>
       <c r="H178">
-        <v>0.018839287898315255</v>
+        <v>0.016017244554292508</v>
       </c>
       <c r="I178">
-        <v>0.082426796343169947</v>
+        <v>0.092393471940143967</v>
       </c>
       <c r="J178">
-        <v>0.087243260538597447</v>
+        <v>0.10617240677068035</v>
       </c>
       <c r="K178">
-        <v>0.026502869548446977</v>
+        <v>0.028414239010699751</v>
       </c>
       <c r="L178">
-        <v>0.008833633766801163</v>
+        <v>0.011313539102773485</v>
       </c>
       <c r="M178">
-        <v>0.086567764428831323</v>
+        <v>0.10879171177700199</v>
       </c>
       <c r="N178">
-        <v>0.070716362454495446</v>
+        <v>0.091349315338210446</v>
       </c>
       <c r="O178">
-        <v>0.022937070981936234</v>
+        <v>0.044657938194384635</v>
       </c>
       <c r="P178">
         <v>1</v>
@@ -9584,46 +9587,46 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.055691044149414518</v>
+        <v>2.2481352436997888e-14</v>
       </c>
       <c r="C179">
-        <v>0.01822330409365636</v>
+        <v>0.0075977595024264537</v>
       </c>
       <c r="D179">
-        <v>0.094586861899207786</v>
+        <v>0.31376428679121948</v>
       </c>
       <c r="E179">
-        <v>0.093792563550704158</v>
+        <v>0.076614191426299633</v>
       </c>
       <c r="F179">
-        <v>0.043987461944237839</v>
+        <v>0.031637019117286343</v>
       </c>
       <c r="G179">
-        <v>0.18967510925062989</v>
+        <v>0.1663196972021517</v>
       </c>
       <c r="H179">
-        <v>0.020537958336176099</v>
+        <v>0.018839287898315255</v>
       </c>
       <c r="I179">
-        <v>0.10123423778758275</v>
+        <v>0.082426796343169947</v>
       </c>
       <c r="J179">
-        <v>0.10296961711424241</v>
+        <v>0.087243260538597447</v>
       </c>
       <c r="K179">
-        <v>0.040957228954162879</v>
+        <v>0.026502869548446977</v>
       </c>
       <c r="L179">
-        <v>0.010830293832995856</v>
+        <v>0.008833633766801163</v>
       </c>
       <c r="M179">
-        <v>0.10781608180996953</v>
+        <v>0.086567764428831323</v>
       </c>
       <c r="N179">
-        <v>0.10863030255542062</v>
+        <v>0.070716362454495446</v>
       </c>
       <c r="O179">
-        <v>0.011067934721599237</v>
+        <v>0.022937070981936234</v>
       </c>
       <c r="P179">
         <v>1</v>
@@ -9634,46 +9637,46 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.072488878152634967</v>
+        <v>0.055691044149414518</v>
       </c>
       <c r="C180">
-        <v>0.034710588248093761</v>
+        <v>0.01822330409365636</v>
       </c>
       <c r="D180">
-        <v>0.041513195994879959</v>
+        <v>0.094586861899207786</v>
       </c>
       <c r="E180">
-        <v>0.095998395903859141</v>
+        <v>0.093792563550704158</v>
       </c>
       <c r="F180">
-        <v>0.047246408809051649</v>
+        <v>0.043987461944237839</v>
       </c>
       <c r="G180">
-        <v>0.19645802903670376</v>
+        <v>0.18967510925062989</v>
       </c>
       <c r="H180">
-        <v>0.0087668230794192333</v>
+        <v>0.020537958336176099</v>
       </c>
       <c r="I180">
-        <v>0.096158386556506575</v>
+        <v>0.10123423778758275</v>
       </c>
       <c r="J180">
-        <v>0.098306342965079285</v>
+        <v>0.10296961711424241</v>
       </c>
       <c r="K180">
-        <v>0.031347115153570491</v>
+        <v>0.040957228954162879</v>
       </c>
       <c r="L180">
-        <v>0.022201529043029404</v>
+        <v>0.010830293832995856</v>
       </c>
       <c r="M180">
-        <v>0.1107176632097404</v>
+        <v>0.10781608180996953</v>
       </c>
       <c r="N180">
-        <v>0.10735320995119167</v>
+        <v>0.10863030255542062</v>
       </c>
       <c r="O180">
-        <v>0.036733433896239516</v>
+        <v>0.011067934721599237</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -9684,46 +9687,46 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.088665595655595827</v>
+        <v>0.072488878152634967</v>
       </c>
       <c r="C181">
-        <v>0.019709820961394984</v>
+        <v>0.034710588248093761</v>
       </c>
       <c r="D181">
-        <v>0.035880303741905567</v>
+        <v>0.041513195994879959</v>
       </c>
       <c r="E181">
-        <v>0.097106147281649943</v>
+        <v>0.095998395903859141</v>
       </c>
       <c r="F181">
-        <v>0.043283312072650758</v>
+        <v>0.047246408809051649</v>
       </c>
       <c r="G181">
-        <v>0.20095639604636265</v>
+        <v>0.19645802903670376</v>
       </c>
       <c r="H181">
-        <v>0.021006748612276055</v>
+        <v>0.0087668230794192333</v>
       </c>
       <c r="I181">
-        <v>0.093902548344566031</v>
+        <v>0.096158386556506575</v>
       </c>
       <c r="J181">
-        <v>0.094001090256183334</v>
+        <v>0.098306342965079285</v>
       </c>
       <c r="K181">
-        <v>0.041121336745523138</v>
+        <v>0.031347115153570491</v>
       </c>
       <c r="L181">
-        <v>0.016617107115314424</v>
+        <v>0.022201529043029404</v>
       </c>
       <c r="M181">
-        <v>0.11087491966873105</v>
+        <v>0.1107176632097404</v>
       </c>
       <c r="N181">
-        <v>0.10377063708261958</v>
+        <v>0.10735320995119167</v>
       </c>
       <c r="O181">
-        <v>0.033104036415226759</v>
+        <v>0.036733433896239516</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -9734,46 +9737,46 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2.225481097448475e-14</v>
+        <v>0.088665595655595827</v>
       </c>
       <c r="C182">
-        <v>0.02878295855022504</v>
+        <v>0.019709820961394984</v>
       </c>
       <c r="D182">
-        <v>0.20140498267025111</v>
+        <v>0.035880303741905567</v>
       </c>
       <c r="E182">
-        <v>0.09036400505118232</v>
+        <v>0.097106147281649943</v>
       </c>
       <c r="F182">
-        <v>0.03927491528222804</v>
+        <v>0.043283312072650758</v>
       </c>
       <c r="G182">
-        <v>0.18797985616297019</v>
+        <v>0.20095639604636265</v>
       </c>
       <c r="H182">
-        <v>0.0029671661649521923</v>
+        <v>0.021006748612276055</v>
       </c>
       <c r="I182">
-        <v>0.085964819503898948</v>
+        <v>0.093902548344566031</v>
       </c>
       <c r="J182">
-        <v>0.083895409234766655</v>
+        <v>0.094001090256183334</v>
       </c>
       <c r="K182">
-        <v>0.053304309038757852</v>
+        <v>0.041121336745523138</v>
       </c>
       <c r="L182">
-        <v>0.02126975213766287</v>
+        <v>0.016617107115314424</v>
       </c>
       <c r="M182">
-        <v>0.1071969083158701</v>
+        <v>0.11087491966873105</v>
       </c>
       <c r="N182">
-        <v>0.092372753124054782</v>
+        <v>0.10377063708261958</v>
       </c>
       <c r="O182">
-        <v>0.0052221647631576548</v>
+        <v>0.033104036415226759</v>
       </c>
       <c r="P182">
         <v>1</v>
@@ -9784,46 +9787,46 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2.2215070983666609e-14</v>
+        <v>2.225481097448475e-14</v>
       </c>
       <c r="C183">
-        <v>0.031828346823070168</v>
+        <v>0.02878295855022504</v>
       </c>
       <c r="D183">
-        <v>0.18455452617299375</v>
+        <v>0.20140498267025111</v>
       </c>
       <c r="E183">
-        <v>0.092622945555964134</v>
+        <v>0.09036400505118232</v>
       </c>
       <c r="F183">
-        <v>0.046106479852246737</v>
+        <v>0.03927491528222804</v>
       </c>
       <c r="G183">
-        <v>0.19057802688014513</v>
+        <v>0.18797985616297019</v>
       </c>
       <c r="H183">
-        <v>0.0068987784221324596</v>
+        <v>0.0029671661649521923</v>
       </c>
       <c r="I183">
-        <v>0.085338687898557322</v>
+        <v>0.085964819503898948</v>
       </c>
       <c r="J183">
-        <v>0.099331053693951385</v>
+        <v>0.083895409234766655</v>
       </c>
       <c r="K183">
-        <v>0.046796974769610852</v>
+        <v>0.053304309038757852</v>
       </c>
       <c r="L183">
-        <v>0.02039202761217632</v>
+        <v>0.02126975213766287</v>
       </c>
       <c r="M183">
-        <v>0.11217284071465543</v>
+        <v>0.1071969083158701</v>
       </c>
       <c r="N183">
-        <v>0.074113826106298866</v>
+        <v>0.092372753124054782</v>
       </c>
       <c r="O183">
-        <v>0.0092654854981751109</v>
+        <v>0.0052221647631576548</v>
       </c>
       <c r="P183">
         <v>1</v>
@@ -9834,48 +9837,98 @@
         <v>183</v>
       </c>
       <c r="B184">
+        <v>2.2215070983666609e-14</v>
+      </c>
+      <c r="C184">
+        <v>0.031828346823070168</v>
+      </c>
+      <c r="D184">
+        <v>0.18455452617299375</v>
+      </c>
+      <c r="E184">
+        <v>0.092622945555964134</v>
+      </c>
+      <c r="F184">
+        <v>0.046106479852246737</v>
+      </c>
+      <c r="G184">
+        <v>0.19057802688014513</v>
+      </c>
+      <c r="H184">
+        <v>0.0068987784221324596</v>
+      </c>
+      <c r="I184">
+        <v>0.085338687898557322</v>
+      </c>
+      <c r="J184">
+        <v>0.099331053693951385</v>
+      </c>
+      <c r="K184">
+        <v>0.046796974769610852</v>
+      </c>
+      <c r="L184">
+        <v>0.02039202761217632</v>
+      </c>
+      <c r="M184">
+        <v>0.11217284071465543</v>
+      </c>
+      <c r="N184">
+        <v>0.074113826106298866</v>
+      </c>
+      <c r="O184">
+        <v>0.0092654854981751109</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
         <v>2.2687271718682525e-14</v>
       </c>
-      <c r="C184">
+      <c r="C185">
         <v>0.011818066124846399</v>
       </c>
-      <c r="D184">
+      <c r="D185">
         <v>0.4430024378593409</v>
       </c>
-      <c r="E184">
+      <c r="E185">
         <v>0.062421423491061896</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <v>0.02787347604463454</v>
       </c>
-      <c r="G184">
+      <c r="G185">
         <v>0.13197469679190804</v>
       </c>
-      <c r="H184">
+      <c r="H185">
         <v>0.0018480142497555967</v>
       </c>
-      <c r="I184">
+      <c r="I185">
         <v>0.062405605465933857</v>
       </c>
-      <c r="J184">
+      <c r="J185">
         <v>0.065219591748123751</v>
       </c>
-      <c r="K184">
+      <c r="K185">
         <v>0.046816678407023124</v>
       </c>
-      <c r="L184">
+      <c r="L185">
         <v>0.012283192205081261</v>
       </c>
-      <c r="M184">
+      <c r="M185">
         <v>0.076694405726140599</v>
       </c>
-      <c r="N184">
+      <c r="N185">
         <v>0.05649957863689959</v>
       </c>
-      <c r="O184">
+      <c r="O185">
         <v>0.0011428332492277298</v>
       </c>
-      <c r="P184">
+      <c r="P185">
         <v>3</v>
       </c>
     </row>
